--- a/2020年1-4月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-4月金源消耗表（财务运营共享版）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.任务包\1.消耗表\2020.04\金源\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\多彩运营\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1903,7 +1903,9 @@
           <cell r="I2" t="str">
             <v/>
           </cell>
-          <cell r="J2"/>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
           <cell r="K2" t="str">
             <v>预付款</v>
           </cell>
@@ -1981,7 +1983,9 @@
           <cell r="I3" t="str">
             <v/>
           </cell>
-          <cell r="J3"/>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
           <cell r="K3" t="str">
             <v>预付款</v>
           </cell>
@@ -2059,7 +2063,9 @@
           <cell r="I4" t="str">
             <v/>
           </cell>
-          <cell r="J4"/>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
           <cell r="K4" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -2137,7 +2143,9 @@
           <cell r="I5" t="str">
             <v/>
           </cell>
-          <cell r="J5"/>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
           <cell r="K5" t="str">
             <v>预存款,账期付款,预付款</v>
           </cell>
@@ -2215,7 +2223,9 @@
           <cell r="I6" t="str">
             <v/>
           </cell>
-          <cell r="J6"/>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
           <cell r="K6" t="str">
             <v>预付款</v>
           </cell>
@@ -2293,7 +2303,9 @@
           <cell r="I7" t="str">
             <v/>
           </cell>
-          <cell r="J7"/>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
           <cell r="K7" t="str">
             <v>账期付款</v>
           </cell>
@@ -2371,7 +2383,9 @@
           <cell r="I8" t="str">
             <v/>
           </cell>
-          <cell r="J8"/>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
           <cell r="K8" t="str">
             <v>账期付款</v>
           </cell>
@@ -2449,7 +2463,9 @@
           <cell r="I9" t="str">
             <v/>
           </cell>
-          <cell r="J9"/>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
           <cell r="K9" t="str">
             <v>账期付款</v>
           </cell>
@@ -2527,7 +2543,9 @@
           <cell r="I10" t="str">
             <v/>
           </cell>
-          <cell r="J10"/>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
           <cell r="K10" t="str">
             <v>预付款</v>
           </cell>
@@ -2605,7 +2623,9 @@
           <cell r="I11" t="str">
             <v>游戏主管</v>
           </cell>
-          <cell r="J11"/>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
           <cell r="K11" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -2683,7 +2703,9 @@
           <cell r="I12" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J12"/>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
           <cell r="K12" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -2761,7 +2783,9 @@
           <cell r="I13" t="str">
             <v/>
           </cell>
-          <cell r="J13"/>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
           <cell r="K13" t="str">
             <v>预付款</v>
           </cell>
@@ -2839,7 +2863,9 @@
           <cell r="I14" t="str">
             <v/>
           </cell>
-          <cell r="J14"/>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
           <cell r="K14" t="str">
             <v>账期付款</v>
           </cell>
@@ -2917,7 +2943,9 @@
           <cell r="I15" t="str">
             <v/>
           </cell>
-          <cell r="J15"/>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
           <cell r="K15" t="str">
             <v>账期付款</v>
           </cell>
@@ -2995,7 +3023,9 @@
           <cell r="I16" t="str">
             <v/>
           </cell>
-          <cell r="J16"/>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
           <cell r="K16" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -3073,7 +3103,9 @@
           <cell r="I17" t="str">
             <v/>
           </cell>
-          <cell r="J17"/>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
           <cell r="K17" t="str">
             <v>预存款</v>
           </cell>
@@ -3151,7 +3183,9 @@
           <cell r="I18" t="str">
             <v>渠道</v>
           </cell>
-          <cell r="J18"/>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
           <cell r="K18" t="str">
             <v>预存款</v>
           </cell>
@@ -3229,7 +3263,9 @@
           <cell r="I19" t="str">
             <v/>
           </cell>
-          <cell r="J19"/>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
           <cell r="K19" t="str">
             <v>预付款</v>
           </cell>
@@ -3307,7 +3343,9 @@
           <cell r="I20" t="str">
             <v/>
           </cell>
-          <cell r="J20"/>
+          <cell r="J20">
+            <v>0</v>
+          </cell>
           <cell r="K20" t="str">
             <v>预付款</v>
           </cell>
@@ -3385,7 +3423,9 @@
           <cell r="I21" t="str">
             <v/>
           </cell>
-          <cell r="J21"/>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
           <cell r="K21" t="str">
             <v>预付款</v>
           </cell>
@@ -3463,7 +3503,9 @@
           <cell r="I22" t="str">
             <v>销售</v>
           </cell>
-          <cell r="J22"/>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
           <cell r="K22" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -3541,7 +3583,9 @@
           <cell r="I23" t="str">
             <v/>
           </cell>
-          <cell r="J23"/>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
           <cell r="K23" t="str">
             <v>预付款</v>
           </cell>
@@ -3619,7 +3663,9 @@
           <cell r="I24" t="str">
             <v/>
           </cell>
-          <cell r="J24"/>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
           <cell r="K24" t="str">
             <v>账期付款</v>
           </cell>
@@ -3697,7 +3743,9 @@
           <cell r="I25" t="str">
             <v/>
           </cell>
-          <cell r="J25"/>
+          <cell r="J25">
+            <v>0</v>
+          </cell>
           <cell r="K25" t="str">
             <v>账期付款</v>
           </cell>
@@ -3775,7 +3823,9 @@
           <cell r="I26" t="str">
             <v/>
           </cell>
-          <cell r="J26"/>
+          <cell r="J26">
+            <v>0</v>
+          </cell>
           <cell r="K26" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -3853,7 +3903,9 @@
           <cell r="I27" t="str">
             <v/>
           </cell>
-          <cell r="J27"/>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
           <cell r="K27" t="str">
             <v>预付款</v>
           </cell>
@@ -3931,7 +3983,9 @@
           <cell r="I28" t="str">
             <v/>
           </cell>
-          <cell r="J28"/>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
           <cell r="K28" t="str">
             <v>账期付款</v>
           </cell>
@@ -4009,7 +4063,9 @@
           <cell r="I29" t="str">
             <v/>
           </cell>
-          <cell r="J29"/>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
           <cell r="K29" t="str">
             <v>账期付款</v>
           </cell>
@@ -4087,7 +4143,9 @@
           <cell r="I30" t="str">
             <v/>
           </cell>
-          <cell r="J30"/>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
           <cell r="K30" t="str">
             <v>账期付款</v>
           </cell>
@@ -4165,7 +4223,9 @@
           <cell r="I31" t="str">
             <v/>
           </cell>
-          <cell r="J31"/>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
           <cell r="K31" t="str">
             <v>账期付款</v>
           </cell>
@@ -4243,7 +4303,9 @@
           <cell r="I32" t="str">
             <v/>
           </cell>
-          <cell r="J32"/>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
           <cell r="K32" t="str">
             <v>账期付款</v>
           </cell>
@@ -4321,7 +4383,9 @@
           <cell r="I33" t="str">
             <v/>
           </cell>
-          <cell r="J33"/>
+          <cell r="J33">
+            <v>0</v>
+          </cell>
           <cell r="K33" t="str">
             <v>账期付款</v>
           </cell>
@@ -4399,7 +4463,9 @@
           <cell r="I34" t="str">
             <v/>
           </cell>
-          <cell r="J34"/>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
           <cell r="K34" t="str">
             <v>账期付款</v>
           </cell>
@@ -4477,7 +4543,9 @@
           <cell r="I35" t="str">
             <v/>
           </cell>
-          <cell r="J35"/>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
           <cell r="K35" t="str">
             <v>预付款</v>
           </cell>
@@ -4555,7 +4623,9 @@
           <cell r="I36" t="str">
             <v/>
           </cell>
-          <cell r="J36"/>
+          <cell r="J36">
+            <v>0</v>
+          </cell>
           <cell r="K36" t="str">
             <v>预存款</v>
           </cell>
@@ -4633,7 +4703,9 @@
           <cell r="I37" t="str">
             <v/>
           </cell>
-          <cell r="J37"/>
+          <cell r="J37">
+            <v>0</v>
+          </cell>
           <cell r="K37" t="str">
             <v>预付款</v>
           </cell>
@@ -4711,7 +4783,9 @@
           <cell r="I38" t="str">
             <v/>
           </cell>
-          <cell r="J38"/>
+          <cell r="J38">
+            <v>0</v>
+          </cell>
           <cell r="K38" t="str">
             <v>预付款</v>
           </cell>
@@ -4789,7 +4863,9 @@
           <cell r="I39" t="str">
             <v/>
           </cell>
-          <cell r="J39"/>
+          <cell r="J39">
+            <v>0</v>
+          </cell>
           <cell r="K39" t="str">
             <v>预付款</v>
           </cell>
@@ -4867,7 +4943,9 @@
           <cell r="I40" t="str">
             <v/>
           </cell>
-          <cell r="J40"/>
+          <cell r="J40">
+            <v>0</v>
+          </cell>
           <cell r="K40" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -4945,7 +5023,9 @@
           <cell r="I41" t="str">
             <v/>
           </cell>
-          <cell r="J41"/>
+          <cell r="J41">
+            <v>0</v>
+          </cell>
           <cell r="K41" t="str">
             <v>预付款</v>
           </cell>
@@ -5023,7 +5103,9 @@
           <cell r="I42" t="str">
             <v/>
           </cell>
-          <cell r="J42"/>
+          <cell r="J42">
+            <v>0</v>
+          </cell>
           <cell r="K42" t="str">
             <v>预付款</v>
           </cell>
@@ -5101,7 +5183,9 @@
           <cell r="I43" t="str">
             <v/>
           </cell>
-          <cell r="J43"/>
+          <cell r="J43">
+            <v>0</v>
+          </cell>
           <cell r="K43" t="str">
             <v>预付款</v>
           </cell>
@@ -5179,7 +5263,9 @@
           <cell r="I44" t="str">
             <v/>
           </cell>
-          <cell r="J44"/>
+          <cell r="J44">
+            <v>0</v>
+          </cell>
           <cell r="K44" t="str">
             <v>预付款</v>
           </cell>
@@ -5257,7 +5343,9 @@
           <cell r="I45" t="str">
             <v/>
           </cell>
-          <cell r="J45"/>
+          <cell r="J45">
+            <v>0</v>
+          </cell>
           <cell r="K45" t="str">
             <v>预付款</v>
           </cell>
@@ -5335,7 +5423,9 @@
           <cell r="I46" t="str">
             <v/>
           </cell>
-          <cell r="J46"/>
+          <cell r="J46">
+            <v>0</v>
+          </cell>
           <cell r="K46" t="str">
             <v>预付款</v>
           </cell>
@@ -5413,7 +5503,9 @@
           <cell r="I47" t="str">
             <v/>
           </cell>
-          <cell r="J47"/>
+          <cell r="J47">
+            <v>0</v>
+          </cell>
           <cell r="K47" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -5491,7 +5583,9 @@
           <cell r="I48" t="str">
             <v/>
           </cell>
-          <cell r="J48"/>
+          <cell r="J48">
+            <v>0</v>
+          </cell>
           <cell r="K48" t="str">
             <v>预付款</v>
           </cell>
@@ -5569,7 +5663,9 @@
           <cell r="I49" t="str">
             <v/>
           </cell>
-          <cell r="J49"/>
+          <cell r="J49">
+            <v>0</v>
+          </cell>
           <cell r="K49" t="str">
             <v>预付款</v>
           </cell>
@@ -5647,7 +5743,9 @@
           <cell r="I50" t="str">
             <v/>
           </cell>
-          <cell r="J50"/>
+          <cell r="J50">
+            <v>0</v>
+          </cell>
           <cell r="K50" t="str">
             <v>预付款</v>
           </cell>
@@ -5725,7 +5823,9 @@
           <cell r="I51" t="str">
             <v/>
           </cell>
-          <cell r="J51"/>
+          <cell r="J51">
+            <v>0</v>
+          </cell>
           <cell r="K51" t="str">
             <v>预付款</v>
           </cell>
@@ -5803,7 +5903,9 @@
           <cell r="I52" t="str">
             <v/>
           </cell>
-          <cell r="J52"/>
+          <cell r="J52">
+            <v>0</v>
+          </cell>
           <cell r="K52" t="str">
             <v>预付款</v>
           </cell>
@@ -5881,7 +5983,9 @@
           <cell r="I53" t="str">
             <v/>
           </cell>
-          <cell r="J53"/>
+          <cell r="J53">
+            <v>0</v>
+          </cell>
           <cell r="K53" t="str">
             <v>预付款</v>
           </cell>
@@ -5959,7 +6063,9 @@
           <cell r="I54" t="str">
             <v/>
           </cell>
-          <cell r="J54"/>
+          <cell r="J54">
+            <v>0</v>
+          </cell>
           <cell r="K54" t="str">
             <v>账期付款</v>
           </cell>
@@ -6037,7 +6143,9 @@
           <cell r="I55" t="str">
             <v/>
           </cell>
-          <cell r="J55"/>
+          <cell r="J55">
+            <v>0</v>
+          </cell>
           <cell r="K55" t="str">
             <v>账期付款</v>
           </cell>
@@ -6115,7 +6223,9 @@
           <cell r="I56" t="str">
             <v/>
           </cell>
-          <cell r="J56"/>
+          <cell r="J56">
+            <v>0</v>
+          </cell>
           <cell r="K56" t="str">
             <v>账期付款</v>
           </cell>
@@ -6193,7 +6303,9 @@
           <cell r="I57" t="str">
             <v/>
           </cell>
-          <cell r="J57"/>
+          <cell r="J57">
+            <v>0</v>
+          </cell>
           <cell r="K57" t="str">
             <v>预付款</v>
           </cell>
@@ -6271,7 +6383,9 @@
           <cell r="I58" t="str">
             <v/>
           </cell>
-          <cell r="J58"/>
+          <cell r="J58">
+            <v>0</v>
+          </cell>
           <cell r="K58" t="str">
             <v>账期付款</v>
           </cell>
@@ -6349,7 +6463,9 @@
           <cell r="I59" t="str">
             <v/>
           </cell>
-          <cell r="J59"/>
+          <cell r="J59">
+            <v>0</v>
+          </cell>
           <cell r="K59" t="str">
             <v>预付款</v>
           </cell>
@@ -6427,7 +6543,9 @@
           <cell r="I60" t="str">
             <v/>
           </cell>
-          <cell r="J60"/>
+          <cell r="J60">
+            <v>0</v>
+          </cell>
           <cell r="K60" t="str">
             <v>预付款</v>
           </cell>
@@ -6505,7 +6623,9 @@
           <cell r="I61" t="str">
             <v/>
           </cell>
-          <cell r="J61"/>
+          <cell r="J61">
+            <v>0</v>
+          </cell>
           <cell r="K61" t="str">
             <v>预付款</v>
           </cell>
@@ -6583,7 +6703,9 @@
           <cell r="I62" t="str">
             <v/>
           </cell>
-          <cell r="J62"/>
+          <cell r="J62">
+            <v>0</v>
+          </cell>
           <cell r="K62" t="str">
             <v>预付款</v>
           </cell>
@@ -6661,7 +6783,9 @@
           <cell r="I63" t="str">
             <v/>
           </cell>
-          <cell r="J63"/>
+          <cell r="J63">
+            <v>0</v>
+          </cell>
           <cell r="K63" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -6739,7 +6863,9 @@
           <cell r="I64" t="str">
             <v/>
           </cell>
-          <cell r="J64"/>
+          <cell r="J64">
+            <v>0</v>
+          </cell>
           <cell r="K64" t="str">
             <v>预付款</v>
           </cell>
@@ -6817,7 +6943,9 @@
           <cell r="I65" t="str">
             <v/>
           </cell>
-          <cell r="J65"/>
+          <cell r="J65">
+            <v>0</v>
+          </cell>
           <cell r="K65" t="str">
             <v>预付款</v>
           </cell>
@@ -6895,7 +7023,9 @@
           <cell r="I66" t="str">
             <v/>
           </cell>
-          <cell r="J66"/>
+          <cell r="J66">
+            <v>0</v>
+          </cell>
           <cell r="K66" t="str">
             <v>预付款</v>
           </cell>
@@ -6973,7 +7103,9 @@
           <cell r="I67" t="str">
             <v/>
           </cell>
-          <cell r="J67"/>
+          <cell r="J67">
+            <v>0</v>
+          </cell>
           <cell r="K67" t="str">
             <v>预付款</v>
           </cell>
@@ -7051,7 +7183,9 @@
           <cell r="I68" t="str">
             <v>商务经纪人</v>
           </cell>
-          <cell r="J68"/>
+          <cell r="J68">
+            <v>0</v>
+          </cell>
           <cell r="K68" t="str">
             <v>预付款</v>
           </cell>
@@ -7129,7 +7263,9 @@
           <cell r="I69" t="str">
             <v/>
           </cell>
-          <cell r="J69"/>
+          <cell r="J69">
+            <v>0</v>
+          </cell>
           <cell r="K69" t="str">
             <v>账期付款</v>
           </cell>
@@ -7207,7 +7343,9 @@
           <cell r="I70" t="str">
             <v/>
           </cell>
-          <cell r="J70"/>
+          <cell r="J70">
+            <v>0</v>
+          </cell>
           <cell r="K70" t="str">
             <v>账期付款</v>
           </cell>
@@ -7285,7 +7423,9 @@
           <cell r="I71" t="str">
             <v/>
           </cell>
-          <cell r="J71"/>
+          <cell r="J71">
+            <v>0</v>
+          </cell>
           <cell r="K71" t="str">
             <v>预付款</v>
           </cell>
@@ -7363,7 +7503,9 @@
           <cell r="I72" t="str">
             <v/>
           </cell>
-          <cell r="J72"/>
+          <cell r="J72">
+            <v>0</v>
+          </cell>
           <cell r="K72" t="str">
             <v>预付款</v>
           </cell>
@@ -7441,7 +7583,9 @@
           <cell r="I73" t="str">
             <v/>
           </cell>
-          <cell r="J73"/>
+          <cell r="J73">
+            <v>0</v>
+          </cell>
           <cell r="K73" t="str">
             <v>预付款</v>
           </cell>
@@ -7519,7 +7663,9 @@
           <cell r="I74" t="str">
             <v/>
           </cell>
-          <cell r="J74"/>
+          <cell r="J74">
+            <v>0</v>
+          </cell>
           <cell r="K74" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -7597,7 +7743,9 @@
           <cell r="I75" t="str">
             <v/>
           </cell>
-          <cell r="J75"/>
+          <cell r="J75">
+            <v>0</v>
+          </cell>
           <cell r="K75" t="str">
             <v>账期付款</v>
           </cell>
@@ -7675,7 +7823,9 @@
           <cell r="I76" t="str">
             <v/>
           </cell>
-          <cell r="J76"/>
+          <cell r="J76">
+            <v>0</v>
+          </cell>
           <cell r="K76" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -7753,7 +7903,9 @@
           <cell r="I77" t="str">
             <v/>
           </cell>
-          <cell r="J77"/>
+          <cell r="J77">
+            <v>0</v>
+          </cell>
           <cell r="K77" t="str">
             <v>账期付款</v>
           </cell>
@@ -7831,7 +7983,9 @@
           <cell r="I78" t="str">
             <v/>
           </cell>
-          <cell r="J78"/>
+          <cell r="J78">
+            <v>0</v>
+          </cell>
           <cell r="K78" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -7909,7 +8063,9 @@
           <cell r="I79" t="str">
             <v/>
           </cell>
-          <cell r="J79"/>
+          <cell r="J79">
+            <v>0</v>
+          </cell>
           <cell r="K79" t="str">
             <v>预付款</v>
           </cell>
@@ -7987,7 +8143,9 @@
           <cell r="I80" t="str">
             <v/>
           </cell>
-          <cell r="J80"/>
+          <cell r="J80">
+            <v>0</v>
+          </cell>
           <cell r="K80" t="str">
             <v>预付款</v>
           </cell>
@@ -8065,7 +8223,9 @@
           <cell r="I81" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J81"/>
+          <cell r="J81">
+            <v>0</v>
+          </cell>
           <cell r="K81" t="str">
             <v>账期付款</v>
           </cell>
@@ -8143,7 +8303,9 @@
           <cell r="I82" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J82"/>
+          <cell r="J82">
+            <v>0</v>
+          </cell>
           <cell r="K82" t="str">
             <v>账期付款</v>
           </cell>
@@ -8221,7 +8383,9 @@
           <cell r="I83" t="str">
             <v/>
           </cell>
-          <cell r="J83"/>
+          <cell r="J83">
+            <v>0</v>
+          </cell>
           <cell r="K83" t="str">
             <v>预付款</v>
           </cell>
@@ -8299,7 +8463,9 @@
           <cell r="I84" t="str">
             <v>效果渠道经理</v>
           </cell>
-          <cell r="J84"/>
+          <cell r="J84">
+            <v>0</v>
+          </cell>
           <cell r="K84" t="str">
             <v>预存款,预付款</v>
           </cell>
@@ -8377,7 +8543,9 @@
           <cell r="I85" t="str">
             <v/>
           </cell>
-          <cell r="J85"/>
+          <cell r="J85">
+            <v>0</v>
+          </cell>
           <cell r="K85" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -8455,7 +8623,9 @@
           <cell r="I86" t="str">
             <v/>
           </cell>
-          <cell r="J86"/>
+          <cell r="J86">
+            <v>0</v>
+          </cell>
           <cell r="K86" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -8533,7 +8703,9 @@
           <cell r="I87" t="str">
             <v/>
           </cell>
-          <cell r="J87"/>
+          <cell r="J87">
+            <v>0</v>
+          </cell>
           <cell r="K87" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -8611,7 +8783,9 @@
           <cell r="I88" t="str">
             <v/>
           </cell>
-          <cell r="J88"/>
+          <cell r="J88">
+            <v>0</v>
+          </cell>
           <cell r="K88" t="str">
             <v>预存款,预付款</v>
           </cell>
@@ -8689,7 +8863,9 @@
           <cell r="I89" t="str">
             <v/>
           </cell>
-          <cell r="J89"/>
+          <cell r="J89">
+            <v>0</v>
+          </cell>
           <cell r="K89" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -8767,7 +8943,9 @@
           <cell r="I90" t="str">
             <v/>
           </cell>
-          <cell r="J90"/>
+          <cell r="J90">
+            <v>0</v>
+          </cell>
           <cell r="K90" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -8845,7 +9023,9 @@
           <cell r="I91" t="str">
             <v/>
           </cell>
-          <cell r="J91"/>
+          <cell r="J91">
+            <v>0</v>
+          </cell>
           <cell r="K91" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -8923,7 +9103,9 @@
           <cell r="I92" t="str">
             <v/>
           </cell>
-          <cell r="J92"/>
+          <cell r="J92">
+            <v>0</v>
+          </cell>
           <cell r="K92" t="str">
             <v>预付款</v>
           </cell>
@@ -9001,7 +9183,9 @@
           <cell r="I93" t="str">
             <v/>
           </cell>
-          <cell r="J93"/>
+          <cell r="J93">
+            <v>0</v>
+          </cell>
           <cell r="K93" t="str">
             <v>账期付款</v>
           </cell>
@@ -9079,7 +9263,9 @@
           <cell r="I94" t="str">
             <v/>
           </cell>
-          <cell r="J94"/>
+          <cell r="J94">
+            <v>0</v>
+          </cell>
           <cell r="K94" t="str">
             <v>预存款</v>
           </cell>
@@ -9157,7 +9343,9 @@
           <cell r="I95" t="str">
             <v/>
           </cell>
-          <cell r="J95"/>
+          <cell r="J95">
+            <v>0</v>
+          </cell>
           <cell r="K95" t="str">
             <v>预付款</v>
           </cell>
@@ -9235,7 +9423,9 @@
           <cell r="I96" t="str">
             <v/>
           </cell>
-          <cell r="J96"/>
+          <cell r="J96">
+            <v>0</v>
+          </cell>
           <cell r="K96" t="str">
             <v>预付款</v>
           </cell>
@@ -9313,7 +9503,9 @@
           <cell r="I97" t="str">
             <v/>
           </cell>
-          <cell r="J97"/>
+          <cell r="J97">
+            <v>0</v>
+          </cell>
           <cell r="K97" t="str">
             <v>预存款</v>
           </cell>
@@ -9391,7 +9583,9 @@
           <cell r="I98" t="str">
             <v/>
           </cell>
-          <cell r="J98"/>
+          <cell r="J98">
+            <v>0</v>
+          </cell>
           <cell r="K98" t="str">
             <v>预存款</v>
           </cell>
@@ -9469,7 +9663,9 @@
           <cell r="I99" t="str">
             <v>商务合作经理</v>
           </cell>
-          <cell r="J99"/>
+          <cell r="J99">
+            <v>0</v>
+          </cell>
           <cell r="K99" t="str">
             <v>账期付款</v>
           </cell>
@@ -9547,7 +9743,9 @@
           <cell r="I100" t="str">
             <v>商务合作经理</v>
           </cell>
-          <cell r="J100"/>
+          <cell r="J100">
+            <v>0</v>
+          </cell>
           <cell r="K100" t="str">
             <v>账期付款</v>
           </cell>
@@ -9625,7 +9823,9 @@
           <cell r="I101" t="str">
             <v/>
           </cell>
-          <cell r="J101"/>
+          <cell r="J101">
+            <v>0</v>
+          </cell>
           <cell r="K101" t="str">
             <v>预付款</v>
           </cell>
@@ -9703,7 +9903,9 @@
           <cell r="I102" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J102"/>
+          <cell r="J102">
+            <v>0</v>
+          </cell>
           <cell r="K102" t="str">
             <v>预存款</v>
           </cell>
@@ -9781,7 +9983,9 @@
           <cell r="I103" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J103"/>
+          <cell r="J103">
+            <v>0</v>
+          </cell>
           <cell r="K103" t="str">
             <v>预存款</v>
           </cell>
@@ -9859,7 +10063,9 @@
           <cell r="I104" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J104"/>
+          <cell r="J104">
+            <v>0</v>
+          </cell>
           <cell r="K104" t="str">
             <v>预存款</v>
           </cell>
@@ -9937,7 +10143,9 @@
           <cell r="I105" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J105"/>
+          <cell r="J105">
+            <v>0</v>
+          </cell>
           <cell r="K105" t="str">
             <v>账期付款</v>
           </cell>
@@ -10015,7 +10223,9 @@
           <cell r="I106" t="str">
             <v>CEO</v>
           </cell>
-          <cell r="J106"/>
+          <cell r="J106">
+            <v>0</v>
+          </cell>
           <cell r="K106" t="str">
             <v>账期付款</v>
           </cell>
@@ -10093,7 +10303,9 @@
           <cell r="I107" t="str">
             <v>渠道总监</v>
           </cell>
-          <cell r="J107"/>
+          <cell r="J107">
+            <v>0</v>
+          </cell>
           <cell r="K107" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10171,7 +10383,9 @@
           <cell r="I108" t="str">
             <v>渠道总监</v>
           </cell>
-          <cell r="J108"/>
+          <cell r="J108">
+            <v>0</v>
+          </cell>
           <cell r="K108" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10249,7 +10463,9 @@
           <cell r="I109" t="str">
             <v/>
           </cell>
-          <cell r="J109"/>
+          <cell r="J109">
+            <v>0</v>
+          </cell>
           <cell r="K109" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -10327,7 +10543,9 @@
           <cell r="I110" t="str">
             <v>销售</v>
           </cell>
-          <cell r="J110"/>
+          <cell r="J110">
+            <v>0</v>
+          </cell>
           <cell r="K110" t="str">
             <v>账期付款</v>
           </cell>
@@ -10405,7 +10623,9 @@
           <cell r="I111" t="str">
             <v>商务</v>
           </cell>
-          <cell r="J111"/>
+          <cell r="J111">
+            <v>0</v>
+          </cell>
           <cell r="K111" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -10483,7 +10703,9 @@
           <cell r="I112" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J112"/>
+          <cell r="J112">
+            <v>0</v>
+          </cell>
           <cell r="K112" t="str">
             <v>账期付款</v>
           </cell>
@@ -10561,7 +10783,9 @@
           <cell r="I113" t="str">
             <v>全国客户总监</v>
           </cell>
-          <cell r="J113"/>
+          <cell r="J113">
+            <v>0</v>
+          </cell>
           <cell r="K113" t="str">
             <v>预付款</v>
           </cell>
@@ -10639,7 +10863,9 @@
           <cell r="I114" t="str">
             <v>渠道</v>
           </cell>
-          <cell r="J114"/>
+          <cell r="J114">
+            <v>0</v>
+          </cell>
           <cell r="K114" t="str">
             <v>预付款</v>
           </cell>
@@ -10717,7 +10943,9 @@
           <cell r="I115" t="str">
             <v/>
           </cell>
-          <cell r="J115"/>
+          <cell r="J115">
+            <v>0</v>
+          </cell>
           <cell r="K115" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -10795,7 +11023,9 @@
           <cell r="I116" t="str">
             <v/>
           </cell>
-          <cell r="J116"/>
+          <cell r="J116">
+            <v>0</v>
+          </cell>
           <cell r="K116" t="str">
             <v>预存款</v>
           </cell>
@@ -10873,7 +11103,9 @@
           <cell r="I117" t="str">
             <v/>
           </cell>
-          <cell r="J117"/>
+          <cell r="J117">
+            <v>0</v>
+          </cell>
           <cell r="K117" t="str">
             <v>预付款</v>
           </cell>
@@ -10951,7 +11183,9 @@
           <cell r="I118" t="str">
             <v/>
           </cell>
-          <cell r="J118"/>
+          <cell r="J118">
+            <v>0</v>
+          </cell>
           <cell r="K118" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11029,7 +11263,9 @@
           <cell r="I119" t="str">
             <v/>
           </cell>
-          <cell r="J119"/>
+          <cell r="J119">
+            <v>0</v>
+          </cell>
           <cell r="K119" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11107,7 +11343,9 @@
           <cell r="I120" t="str">
             <v/>
           </cell>
-          <cell r="J120"/>
+          <cell r="J120">
+            <v>0</v>
+          </cell>
           <cell r="K120" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11185,7 +11423,9 @@
           <cell r="I121" t="str">
             <v/>
           </cell>
-          <cell r="J121"/>
+          <cell r="J121">
+            <v>0</v>
+          </cell>
           <cell r="K121" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -11263,7 +11503,9 @@
           <cell r="I122" t="str">
             <v/>
           </cell>
-          <cell r="J122"/>
+          <cell r="J122">
+            <v>0</v>
+          </cell>
           <cell r="K122" t="str">
             <v>预存款</v>
           </cell>
@@ -11341,7 +11583,9 @@
           <cell r="I123" t="str">
             <v/>
           </cell>
-          <cell r="J123"/>
+          <cell r="J123">
+            <v>0</v>
+          </cell>
           <cell r="K123" t="str">
             <v>预存款</v>
           </cell>
@@ -11419,7 +11663,9 @@
           <cell r="I124" t="str">
             <v/>
           </cell>
-          <cell r="J124"/>
+          <cell r="J124">
+            <v>0</v>
+          </cell>
           <cell r="K124" t="str">
             <v>预存款</v>
           </cell>
@@ -11497,7 +11743,9 @@
           <cell r="I125" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J125"/>
+          <cell r="J125">
+            <v>0</v>
+          </cell>
           <cell r="K125" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11575,7 +11823,9 @@
           <cell r="I126" t="str">
             <v/>
           </cell>
-          <cell r="J126"/>
+          <cell r="J126">
+            <v>0</v>
+          </cell>
           <cell r="K126" t="str">
             <v>预存款</v>
           </cell>
@@ -11653,7 +11903,9 @@
           <cell r="I127" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J127"/>
+          <cell r="J127">
+            <v>0</v>
+          </cell>
           <cell r="K127" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11731,7 +11983,9 @@
           <cell r="I128" t="str">
             <v/>
           </cell>
-          <cell r="J128"/>
+          <cell r="J128">
+            <v>0</v>
+          </cell>
           <cell r="K128" t="str">
             <v>预存款</v>
           </cell>
@@ -11809,7 +12063,9 @@
           <cell r="I129" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J129"/>
+          <cell r="J129">
+            <v>0</v>
+          </cell>
           <cell r="K129" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -11887,7 +12143,9 @@
           <cell r="I130" t="str">
             <v/>
           </cell>
-          <cell r="J130"/>
+          <cell r="J130">
+            <v>0</v>
+          </cell>
           <cell r="K130" t="str">
             <v>预存款</v>
           </cell>
@@ -11965,7 +12223,9 @@
           <cell r="I131" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J131"/>
+          <cell r="J131">
+            <v>0</v>
+          </cell>
           <cell r="K131" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12043,7 +12303,9 @@
           <cell r="I132" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J132"/>
+          <cell r="J132">
+            <v>0</v>
+          </cell>
           <cell r="K132" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12121,7 +12383,9 @@
           <cell r="I133" t="str">
             <v/>
           </cell>
-          <cell r="J133"/>
+          <cell r="J133">
+            <v>0</v>
+          </cell>
           <cell r="K133" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -12199,7 +12463,9 @@
           <cell r="I134" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J134"/>
+          <cell r="J134">
+            <v>0</v>
+          </cell>
           <cell r="K134" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -12277,7 +12543,9 @@
           <cell r="I135" t="str">
             <v/>
           </cell>
-          <cell r="J135"/>
+          <cell r="J135">
+            <v>0</v>
+          </cell>
           <cell r="K135" t="str">
             <v>预存款</v>
           </cell>
@@ -12355,7 +12623,9 @@
           <cell r="I136" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J136"/>
+          <cell r="J136">
+            <v>0</v>
+          </cell>
           <cell r="K136" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12433,7 +12703,9 @@
           <cell r="I137" t="str">
             <v/>
           </cell>
-          <cell r="J137"/>
+          <cell r="J137">
+            <v>0</v>
+          </cell>
           <cell r="K137" t="str">
             <v>预存款</v>
           </cell>
@@ -12511,7 +12783,9 @@
           <cell r="I138" t="str">
             <v/>
           </cell>
-          <cell r="J138"/>
+          <cell r="J138">
+            <v>0</v>
+          </cell>
           <cell r="K138" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -12589,7 +12863,9 @@
           <cell r="I139" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J139"/>
+          <cell r="J139">
+            <v>0</v>
+          </cell>
           <cell r="K139" t="str">
             <v>预付款,预存款,账期付款</v>
           </cell>
@@ -12667,7 +12943,9 @@
           <cell r="I140" t="str">
             <v/>
           </cell>
-          <cell r="J140"/>
+          <cell r="J140">
+            <v>0</v>
+          </cell>
           <cell r="K140" t="str">
             <v>预存款</v>
           </cell>
@@ -12745,7 +13023,9 @@
           <cell r="I141" t="str">
             <v/>
           </cell>
-          <cell r="J141"/>
+          <cell r="J141">
+            <v>0</v>
+          </cell>
           <cell r="K141" t="str">
             <v>预存款</v>
           </cell>
@@ -12823,7 +13103,9 @@
           <cell r="I142" t="str">
             <v/>
           </cell>
-          <cell r="J142"/>
+          <cell r="J142">
+            <v>0</v>
+          </cell>
           <cell r="K142" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -12901,7 +13183,9 @@
           <cell r="I143" t="str">
             <v/>
           </cell>
-          <cell r="J143"/>
+          <cell r="J143">
+            <v>0</v>
+          </cell>
           <cell r="K143" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -12979,7 +13263,9 @@
           <cell r="I144" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J144"/>
+          <cell r="J144">
+            <v>0</v>
+          </cell>
           <cell r="K144" t="str">
             <v>账期付款</v>
           </cell>
@@ -13057,7 +13343,9 @@
           <cell r="I145" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J145"/>
+          <cell r="J145">
+            <v>0</v>
+          </cell>
           <cell r="K145" t="str">
             <v>账期付款</v>
           </cell>
@@ -13135,7 +13423,9 @@
           <cell r="I146" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J146"/>
+          <cell r="J146">
+            <v>0</v>
+          </cell>
           <cell r="K146" t="str">
             <v>预付款</v>
           </cell>
@@ -13213,7 +13503,9 @@
           <cell r="I147" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J147"/>
+          <cell r="J147">
+            <v>0</v>
+          </cell>
           <cell r="K147" t="str">
             <v>预付款</v>
           </cell>
@@ -13291,7 +13583,9 @@
           <cell r="I148" t="str">
             <v/>
           </cell>
-          <cell r="J148"/>
+          <cell r="J148">
+            <v>0</v>
+          </cell>
           <cell r="K148" t="str">
             <v>预存款</v>
           </cell>
@@ -13369,7 +13663,9 @@
           <cell r="I149" t="str">
             <v/>
           </cell>
-          <cell r="J149"/>
+          <cell r="J149">
+            <v>0</v>
+          </cell>
           <cell r="K149" t="str">
             <v>预存款</v>
           </cell>
@@ -13447,7 +13743,9 @@
           <cell r="I150" t="str">
             <v/>
           </cell>
-          <cell r="J150"/>
+          <cell r="J150">
+            <v>0</v>
+          </cell>
           <cell r="K150" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -13525,7 +13823,9 @@
           <cell r="I151" t="str">
             <v/>
           </cell>
-          <cell r="J151"/>
+          <cell r="J151">
+            <v>0</v>
+          </cell>
           <cell r="K151" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -13603,7 +13903,9 @@
           <cell r="I152" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J152"/>
+          <cell r="J152">
+            <v>0</v>
+          </cell>
           <cell r="K152" t="str">
             <v>账期付款</v>
           </cell>
@@ -13681,7 +13983,9 @@
           <cell r="I153" t="str">
             <v>经理</v>
           </cell>
-          <cell r="J153"/>
+          <cell r="J153">
+            <v>0</v>
+          </cell>
           <cell r="K153" t="str">
             <v>账期付款</v>
           </cell>
@@ -13759,7 +14063,9 @@
           <cell r="I154" t="str">
             <v/>
           </cell>
-          <cell r="J154"/>
+          <cell r="J154">
+            <v>0</v>
+          </cell>
           <cell r="K154" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -13837,7 +14143,9 @@
           <cell r="I155" t="str">
             <v/>
           </cell>
-          <cell r="J155"/>
+          <cell r="J155">
+            <v>0</v>
+          </cell>
           <cell r="K155" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -13915,7 +14223,9 @@
           <cell r="I156" t="str">
             <v/>
           </cell>
-          <cell r="J156"/>
+          <cell r="J156">
+            <v>0</v>
+          </cell>
           <cell r="K156" t="str">
             <v>账期付款</v>
           </cell>
@@ -13993,7 +14303,9 @@
           <cell r="I157" t="str">
             <v/>
           </cell>
-          <cell r="J157"/>
+          <cell r="J157">
+            <v>0</v>
+          </cell>
           <cell r="K157" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -14071,7 +14383,9 @@
           <cell r="I158" t="str">
             <v/>
           </cell>
-          <cell r="J158"/>
+          <cell r="J158">
+            <v>0</v>
+          </cell>
           <cell r="K158" t="str">
             <v>账期付款,预付款,预存款</v>
           </cell>
@@ -14149,7 +14463,9 @@
           <cell r="I159" t="str">
             <v/>
           </cell>
-          <cell r="J159"/>
+          <cell r="J159">
+            <v>0</v>
+          </cell>
           <cell r="K159" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -14227,7 +14543,9 @@
           <cell r="I160" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J160"/>
+          <cell r="J160">
+            <v>0</v>
+          </cell>
           <cell r="K160" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -14305,7 +14623,9 @@
           <cell r="I161" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J161"/>
+          <cell r="J161">
+            <v>0</v>
+          </cell>
           <cell r="K161" t="str">
             <v>账期付款</v>
           </cell>
@@ -14383,7 +14703,9 @@
           <cell r="I162" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J162"/>
+          <cell r="J162">
+            <v>0</v>
+          </cell>
           <cell r="K162" t="str">
             <v>账期付款</v>
           </cell>
@@ -14461,7 +14783,9 @@
           <cell r="I163" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J163"/>
+          <cell r="J163">
+            <v>0</v>
+          </cell>
           <cell r="K163" t="str">
             <v>预付款</v>
           </cell>
@@ -14539,7 +14863,9 @@
           <cell r="I164" t="str">
             <v/>
           </cell>
-          <cell r="J164"/>
+          <cell r="J164">
+            <v>0</v>
+          </cell>
           <cell r="K164" t="str">
             <v>账期付款</v>
           </cell>
@@ -14617,7 +14943,9 @@
           <cell r="I165" t="str">
             <v/>
           </cell>
-          <cell r="J165"/>
+          <cell r="J165">
+            <v>0</v>
+          </cell>
           <cell r="K165" t="str">
             <v>预存款</v>
           </cell>
@@ -14695,7 +15023,9 @@
           <cell r="I166" t="str">
             <v/>
           </cell>
-          <cell r="J166"/>
+          <cell r="J166">
+            <v>0</v>
+          </cell>
           <cell r="K166" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -14773,7 +15103,9 @@
           <cell r="I167" t="str">
             <v/>
           </cell>
-          <cell r="J167"/>
+          <cell r="J167">
+            <v>0</v>
+          </cell>
           <cell r="K167" t="str">
             <v>预付款</v>
           </cell>
@@ -14851,7 +15183,9 @@
           <cell r="I168" t="str">
             <v/>
           </cell>
-          <cell r="J168"/>
+          <cell r="J168">
+            <v>0</v>
+          </cell>
           <cell r="K168" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -14929,7 +15263,9 @@
           <cell r="I169" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J169"/>
+          <cell r="J169">
+            <v>0</v>
+          </cell>
           <cell r="K169" t="str">
             <v>账期付款</v>
           </cell>
@@ -15007,7 +15343,9 @@
           <cell r="I170" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J170"/>
+          <cell r="J170">
+            <v>0</v>
+          </cell>
           <cell r="K170" t="str">
             <v>账期付款</v>
           </cell>
@@ -15085,7 +15423,9 @@
           <cell r="I171" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J171"/>
+          <cell r="J171">
+            <v>0</v>
+          </cell>
           <cell r="K171" t="str">
             <v>账期付款</v>
           </cell>
@@ -15163,7 +15503,9 @@
           <cell r="I172" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J172"/>
+          <cell r="J172">
+            <v>0</v>
+          </cell>
           <cell r="K172" t="str">
             <v>账期付款</v>
           </cell>
@@ -15241,7 +15583,9 @@
           <cell r="I173" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J173"/>
+          <cell r="J173">
+            <v>0</v>
+          </cell>
           <cell r="K173" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -15319,7 +15663,9 @@
           <cell r="I174" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J174"/>
+          <cell r="J174">
+            <v>0</v>
+          </cell>
           <cell r="K174" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -15397,7 +15743,9 @@
           <cell r="I175" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J175"/>
+          <cell r="J175">
+            <v>0</v>
+          </cell>
           <cell r="K175" t="str">
             <v>预付款</v>
           </cell>
@@ -15475,7 +15823,9 @@
           <cell r="I176" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J176"/>
+          <cell r="J176">
+            <v>0</v>
+          </cell>
           <cell r="K176" t="str">
             <v>预付款</v>
           </cell>
@@ -15553,7 +15903,9 @@
           <cell r="I177" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J177"/>
+          <cell r="J177">
+            <v>0</v>
+          </cell>
           <cell r="K177" t="str">
             <v>预付款</v>
           </cell>
@@ -15631,7 +15983,9 @@
           <cell r="I178" t="str">
             <v/>
           </cell>
-          <cell r="J178"/>
+          <cell r="J178">
+            <v>0</v>
+          </cell>
           <cell r="K178" t="str">
             <v>预付款</v>
           </cell>
@@ -15709,7 +16063,9 @@
           <cell r="I179" t="str">
             <v/>
           </cell>
-          <cell r="J179"/>
+          <cell r="J179">
+            <v>0</v>
+          </cell>
           <cell r="K179" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -15787,7 +16143,9 @@
           <cell r="I180" t="str">
             <v>项目经理</v>
           </cell>
-          <cell r="J180"/>
+          <cell r="J180">
+            <v>0</v>
+          </cell>
           <cell r="K180" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -15865,7 +16223,9 @@
           <cell r="I181" t="str">
             <v/>
           </cell>
-          <cell r="J181"/>
+          <cell r="J181">
+            <v>0</v>
+          </cell>
           <cell r="K181" t="str">
             <v>账期付款</v>
           </cell>
@@ -15943,7 +16303,9 @@
           <cell r="I182" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J182"/>
+          <cell r="J182">
+            <v>0</v>
+          </cell>
           <cell r="K182" t="str">
             <v>预付款</v>
           </cell>
@@ -16021,7 +16383,9 @@
           <cell r="I183" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J183"/>
+          <cell r="J183">
+            <v>0</v>
+          </cell>
           <cell r="K183" t="str">
             <v>预付款</v>
           </cell>
@@ -16099,7 +16463,9 @@
           <cell r="I184" t="str">
             <v/>
           </cell>
-          <cell r="J184"/>
+          <cell r="J184">
+            <v>0</v>
+          </cell>
           <cell r="K184" t="str">
             <v>账期付款</v>
           </cell>
@@ -16177,7 +16543,9 @@
           <cell r="I185" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J185"/>
+          <cell r="J185">
+            <v>0</v>
+          </cell>
           <cell r="K185" t="str">
             <v>预付款</v>
           </cell>
@@ -16255,7 +16623,9 @@
           <cell r="I186" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J186"/>
+          <cell r="J186">
+            <v>0</v>
+          </cell>
           <cell r="K186" t="str">
             <v>预付款</v>
           </cell>
@@ -16333,7 +16703,9 @@
           <cell r="I187" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J187"/>
+          <cell r="J187">
+            <v>0</v>
+          </cell>
           <cell r="K187" t="str">
             <v>预付款</v>
           </cell>
@@ -16411,7 +16783,9 @@
           <cell r="I188" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J188"/>
+          <cell r="J188">
+            <v>0</v>
+          </cell>
           <cell r="K188" t="str">
             <v>预付款</v>
           </cell>
@@ -16489,7 +16863,9 @@
           <cell r="I189" t="str">
             <v>客户经理</v>
           </cell>
-          <cell r="J189"/>
+          <cell r="J189">
+            <v>0</v>
+          </cell>
           <cell r="K189" t="str">
             <v>预付款</v>
           </cell>
@@ -16567,7 +16943,9 @@
           <cell r="I190" t="str">
             <v/>
           </cell>
-          <cell r="J190"/>
+          <cell r="J190">
+            <v>0</v>
+          </cell>
           <cell r="K190" t="str">
             <v>账期付款</v>
           </cell>
@@ -16645,7 +17023,9 @@
           <cell r="I191" t="str">
             <v/>
           </cell>
-          <cell r="J191"/>
+          <cell r="J191">
+            <v>0</v>
+          </cell>
           <cell r="K191" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -16723,7 +17103,9 @@
           <cell r="I192" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J192"/>
+          <cell r="J192">
+            <v>0</v>
+          </cell>
           <cell r="K192" t="str">
             <v>预付款</v>
           </cell>
@@ -16801,7 +17183,9 @@
           <cell r="I193" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J193"/>
+          <cell r="J193">
+            <v>0</v>
+          </cell>
           <cell r="K193" t="str">
             <v>预付款</v>
           </cell>
@@ -16879,7 +17263,9 @@
           <cell r="I194" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J194"/>
+          <cell r="J194">
+            <v>0</v>
+          </cell>
           <cell r="K194" t="str">
             <v>账期付款</v>
           </cell>
@@ -16957,7 +17343,9 @@
           <cell r="I195" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J195"/>
+          <cell r="J195">
+            <v>0</v>
+          </cell>
           <cell r="K195" t="str">
             <v>账期付款</v>
           </cell>
@@ -17035,7 +17423,9 @@
           <cell r="I196" t="str">
             <v>媒介执行</v>
           </cell>
-          <cell r="J196"/>
+          <cell r="J196">
+            <v>0</v>
+          </cell>
           <cell r="K196" t="str">
             <v>账期付款</v>
           </cell>
@@ -17113,7 +17503,9 @@
           <cell r="I197" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J197"/>
+          <cell r="J197">
+            <v>0</v>
+          </cell>
           <cell r="K197" t="str">
             <v>预付款</v>
           </cell>
@@ -17191,7 +17583,9 @@
           <cell r="I198" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J198"/>
+          <cell r="J198">
+            <v>0</v>
+          </cell>
           <cell r="K198" t="str">
             <v>预付款</v>
           </cell>
@@ -17269,7 +17663,9 @@
           <cell r="I199" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J199"/>
+          <cell r="J199">
+            <v>0</v>
+          </cell>
           <cell r="K199" t="str">
             <v>预付款</v>
           </cell>
@@ -17347,7 +17743,9 @@
           <cell r="I200" t="str">
             <v/>
           </cell>
-          <cell r="J200"/>
+          <cell r="J200">
+            <v>0</v>
+          </cell>
           <cell r="K200" t="str">
             <v>预付款</v>
           </cell>
@@ -17425,7 +17823,9 @@
           <cell r="I201" t="str">
             <v>高级媒介经理</v>
           </cell>
-          <cell r="J201"/>
+          <cell r="J201">
+            <v>0</v>
+          </cell>
           <cell r="K201" t="str">
             <v>预付款</v>
           </cell>
@@ -17503,7 +17903,9 @@
           <cell r="I202" t="str">
             <v/>
           </cell>
-          <cell r="J202"/>
+          <cell r="J202">
+            <v>0</v>
+          </cell>
           <cell r="K202" t="str">
             <v>预付款</v>
           </cell>
@@ -17581,7 +17983,9 @@
           <cell r="I203" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J203"/>
+          <cell r="J203">
+            <v>0</v>
+          </cell>
           <cell r="K203" t="str">
             <v>预付款</v>
           </cell>
@@ -17659,7 +18063,9 @@
           <cell r="I204" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J204"/>
+          <cell r="J204">
+            <v>0</v>
+          </cell>
           <cell r="K204" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -17737,7 +18143,9 @@
           <cell r="I205" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J205"/>
+          <cell r="J205">
+            <v>0</v>
+          </cell>
           <cell r="K205" t="str">
             <v>账期付款,预付款</v>
           </cell>
@@ -17815,7 +18223,9 @@
           <cell r="I206" t="str">
             <v>销售经理</v>
           </cell>
-          <cell r="J206"/>
+          <cell r="J206">
+            <v>0</v>
+          </cell>
           <cell r="K206" t="str">
             <v>预付款</v>
           </cell>
@@ -17893,7 +18303,9 @@
           <cell r="I207" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J207"/>
+          <cell r="J207">
+            <v>0</v>
+          </cell>
           <cell r="K207" t="str">
             <v>预付款</v>
           </cell>
@@ -17971,7 +18383,9 @@
           <cell r="I208" t="str">
             <v/>
           </cell>
-          <cell r="J208"/>
+          <cell r="J208">
+            <v>0</v>
+          </cell>
           <cell r="K208" t="str">
             <v>账期付款</v>
           </cell>
@@ -18049,7 +18463,9 @@
           <cell r="I209" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J209"/>
+          <cell r="J209">
+            <v>0</v>
+          </cell>
           <cell r="K209" t="str">
             <v>账期付款</v>
           </cell>
@@ -18127,7 +18543,9 @@
           <cell r="I210" t="str">
             <v>渠道销售总监</v>
           </cell>
-          <cell r="J210"/>
+          <cell r="J210">
+            <v>0</v>
+          </cell>
           <cell r="K210" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -18205,7 +18623,9 @@
           <cell r="I211" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J211"/>
+          <cell r="J211">
+            <v>0</v>
+          </cell>
           <cell r="K211" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -18283,7 +18703,9 @@
           <cell r="I212" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J212"/>
+          <cell r="J212">
+            <v>0</v>
+          </cell>
           <cell r="K212" t="str">
             <v>预付款</v>
           </cell>
@@ -18361,7 +18783,9 @@
           <cell r="I213" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J213"/>
+          <cell r="J213">
+            <v>0</v>
+          </cell>
           <cell r="K213" t="str">
             <v>预付款</v>
           </cell>
@@ -18439,7 +18863,9 @@
           <cell r="I214" t="str">
             <v/>
           </cell>
-          <cell r="J214"/>
+          <cell r="J214">
+            <v>0</v>
+          </cell>
           <cell r="K214" t="str">
             <v>预付款</v>
           </cell>
@@ -18517,7 +18943,9 @@
           <cell r="I215" t="str">
             <v/>
           </cell>
-          <cell r="J215"/>
+          <cell r="J215">
+            <v>0</v>
+          </cell>
           <cell r="K215" t="str">
             <v>预付款</v>
           </cell>
@@ -18595,7 +19023,9 @@
           <cell r="I216" t="str">
             <v/>
           </cell>
-          <cell r="J216"/>
+          <cell r="J216">
+            <v>0</v>
+          </cell>
           <cell r="K216" t="str">
             <v>预存款</v>
           </cell>
@@ -18673,7 +19103,9 @@
           <cell r="I217" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J217"/>
+          <cell r="J217">
+            <v>0</v>
+          </cell>
           <cell r="K217" t="str">
             <v>预付款</v>
           </cell>
@@ -18751,7 +19183,9 @@
           <cell r="I218" t="str">
             <v/>
           </cell>
-          <cell r="J218"/>
+          <cell r="J218">
+            <v>0</v>
+          </cell>
           <cell r="K218" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -18829,7 +19263,9 @@
           <cell r="I219" t="str">
             <v/>
           </cell>
-          <cell r="J219"/>
+          <cell r="J219">
+            <v>0</v>
+          </cell>
           <cell r="K219" t="str">
             <v>预付款</v>
           </cell>
@@ -18907,7 +19343,9 @@
           <cell r="I220" t="str">
             <v/>
           </cell>
-          <cell r="J220"/>
+          <cell r="J220">
+            <v>0</v>
+          </cell>
           <cell r="K220" t="str">
             <v>账期付款</v>
           </cell>
@@ -18985,7 +19423,9 @@
           <cell r="I221" t="str">
             <v/>
           </cell>
-          <cell r="J221"/>
+          <cell r="J221">
+            <v>0</v>
+          </cell>
           <cell r="K221" t="str">
             <v>预付款</v>
           </cell>
@@ -19063,7 +19503,9 @@
           <cell r="I222" t="str">
             <v/>
           </cell>
-          <cell r="J222"/>
+          <cell r="J222">
+            <v>0</v>
+          </cell>
           <cell r="K222" t="str">
             <v>预付款</v>
           </cell>
@@ -19141,7 +19583,9 @@
           <cell r="I223" t="str">
             <v/>
           </cell>
-          <cell r="J223"/>
+          <cell r="J223">
+            <v>0</v>
+          </cell>
           <cell r="K223" t="str">
             <v>预存款</v>
           </cell>
@@ -19219,7 +19663,9 @@
           <cell r="I224" t="str">
             <v/>
           </cell>
-          <cell r="J224"/>
+          <cell r="J224">
+            <v>0</v>
+          </cell>
           <cell r="K224" t="str">
             <v>预存款</v>
           </cell>
@@ -19297,7 +19743,9 @@
           <cell r="I225" t="str">
             <v/>
           </cell>
-          <cell r="J225"/>
+          <cell r="J225">
+            <v>0</v>
+          </cell>
           <cell r="K225" t="str">
             <v>预存款</v>
           </cell>
@@ -19375,7 +19823,9 @@
           <cell r="I226" t="str">
             <v/>
           </cell>
-          <cell r="J226"/>
+          <cell r="J226">
+            <v>0</v>
+          </cell>
           <cell r="K226" t="str">
             <v>预存款</v>
           </cell>
@@ -19453,7 +19903,9 @@
           <cell r="I227" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J227"/>
+          <cell r="J227">
+            <v>0</v>
+          </cell>
           <cell r="K227" t="str">
             <v>预付款</v>
           </cell>
@@ -19531,7 +19983,9 @@
           <cell r="I228" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J228"/>
+          <cell r="J228">
+            <v>0</v>
+          </cell>
           <cell r="K228" t="str">
             <v>预存款</v>
           </cell>
@@ -19609,7 +20063,9 @@
           <cell r="I229" t="str">
             <v/>
           </cell>
-          <cell r="J229"/>
+          <cell r="J229">
+            <v>0</v>
+          </cell>
           <cell r="K229" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -19687,7 +20143,9 @@
           <cell r="I230" t="str">
             <v/>
           </cell>
-          <cell r="J230"/>
+          <cell r="J230">
+            <v>0</v>
+          </cell>
           <cell r="K230" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -19765,7 +20223,9 @@
           <cell r="I231" t="str">
             <v/>
           </cell>
-          <cell r="J231"/>
+          <cell r="J231">
+            <v>0</v>
+          </cell>
           <cell r="K231" t="str">
             <v>预付款,账期付款,预存款</v>
           </cell>
@@ -19843,7 +20303,9 @@
           <cell r="I232" t="str">
             <v/>
           </cell>
-          <cell r="J232"/>
+          <cell r="J232">
+            <v>0</v>
+          </cell>
           <cell r="K232" t="str">
             <v>预付款</v>
           </cell>
@@ -19921,7 +20383,9 @@
           <cell r="I233" t="str">
             <v/>
           </cell>
-          <cell r="J233"/>
+          <cell r="J233">
+            <v>0</v>
+          </cell>
           <cell r="K233" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -19999,7 +20463,9 @@
           <cell r="I234" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J234"/>
+          <cell r="J234">
+            <v>0</v>
+          </cell>
           <cell r="K234" t="str">
             <v>预付款</v>
           </cell>
@@ -20077,7 +20543,9 @@
           <cell r="I235" t="str">
             <v>销售合伙人</v>
           </cell>
-          <cell r="J235"/>
+          <cell r="J235">
+            <v>0</v>
+          </cell>
           <cell r="K235" t="str">
             <v>预付款</v>
           </cell>
@@ -20155,7 +20623,9 @@
           <cell r="I236" t="str">
             <v>高级渠道经理</v>
           </cell>
-          <cell r="J236"/>
+          <cell r="J236">
+            <v>0</v>
+          </cell>
           <cell r="K236" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -20233,7 +20703,9 @@
           <cell r="I237" t="str">
             <v>财务</v>
           </cell>
-          <cell r="J237"/>
+          <cell r="J237">
+            <v>0</v>
+          </cell>
           <cell r="K237" t="str">
             <v>预付款</v>
           </cell>
@@ -20311,7 +20783,9 @@
           <cell r="I238" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J238"/>
+          <cell r="J238">
+            <v>0</v>
+          </cell>
           <cell r="K238" t="str">
             <v>预付款</v>
           </cell>
@@ -20389,7 +20863,9 @@
           <cell r="I239" t="str">
             <v/>
           </cell>
-          <cell r="J239"/>
+          <cell r="J239">
+            <v>0</v>
+          </cell>
           <cell r="K239" t="str">
             <v>账期付款</v>
           </cell>
@@ -20467,7 +20943,9 @@
           <cell r="I240" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J240"/>
+          <cell r="J240">
+            <v>0</v>
+          </cell>
           <cell r="K240" t="str">
             <v>预付款</v>
           </cell>
@@ -20545,7 +21023,9 @@
           <cell r="I241" t="str">
             <v/>
           </cell>
-          <cell r="J241"/>
+          <cell r="J241">
+            <v>0</v>
+          </cell>
           <cell r="K241" t="str">
             <v>预存款</v>
           </cell>
@@ -20623,7 +21103,9 @@
           <cell r="I242" t="str">
             <v/>
           </cell>
-          <cell r="J242"/>
+          <cell r="J242">
+            <v>0</v>
+          </cell>
           <cell r="K242" t="str">
             <v>预存款</v>
           </cell>
@@ -20701,7 +21183,9 @@
           <cell r="I243" t="str">
             <v/>
           </cell>
-          <cell r="J243"/>
+          <cell r="J243">
+            <v>0</v>
+          </cell>
           <cell r="K243" t="str">
             <v>预付款</v>
           </cell>
@@ -20779,7 +21263,9 @@
           <cell r="I244" t="str">
             <v/>
           </cell>
-          <cell r="J244"/>
+          <cell r="J244">
+            <v>0</v>
+          </cell>
           <cell r="K244" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -20857,7 +21343,9 @@
           <cell r="I245" t="str">
             <v/>
           </cell>
-          <cell r="J245"/>
+          <cell r="J245">
+            <v>0</v>
+          </cell>
           <cell r="K245" t="str">
             <v>预存款</v>
           </cell>
@@ -20935,7 +21423,9 @@
           <cell r="I246" t="str">
             <v/>
           </cell>
-          <cell r="J246"/>
+          <cell r="J246">
+            <v>0</v>
+          </cell>
           <cell r="K246" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21013,7 +21503,9 @@
           <cell r="I247" t="str">
             <v/>
           </cell>
-          <cell r="J247"/>
+          <cell r="J247">
+            <v>0</v>
+          </cell>
           <cell r="K247" t="str">
             <v>账期付款</v>
           </cell>
@@ -21091,7 +21583,9 @@
           <cell r="I248" t="str">
             <v/>
           </cell>
-          <cell r="J248"/>
+          <cell r="J248">
+            <v>0</v>
+          </cell>
           <cell r="K248" t="str">
             <v>预付款,预存款</v>
           </cell>
@@ -21169,7 +21663,9 @@
           <cell r="I249" t="str">
             <v>媒介总监</v>
           </cell>
-          <cell r="J249"/>
+          <cell r="J249">
+            <v>0</v>
+          </cell>
           <cell r="K249" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21247,7 +21743,9 @@
           <cell r="I250" t="str">
             <v/>
           </cell>
-          <cell r="J250"/>
+          <cell r="J250">
+            <v>0</v>
+          </cell>
           <cell r="K250" t="str">
             <v>账期付款</v>
           </cell>
@@ -21325,7 +21823,9 @@
           <cell r="I251" t="str">
             <v/>
           </cell>
-          <cell r="J251"/>
+          <cell r="J251">
+            <v>0</v>
+          </cell>
           <cell r="K251" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -21403,7 +21903,9 @@
           <cell r="I252" t="str">
             <v/>
           </cell>
-          <cell r="J252"/>
+          <cell r="J252">
+            <v>0</v>
+          </cell>
           <cell r="K252" t="str">
             <v>账期付款</v>
           </cell>
@@ -21481,7 +21983,9 @@
           <cell r="I253" t="str">
             <v/>
           </cell>
-          <cell r="J253"/>
+          <cell r="J253">
+            <v>0</v>
+          </cell>
           <cell r="K253" t="str">
             <v>预付款</v>
           </cell>
@@ -21559,7 +22063,9 @@
           <cell r="I254" t="str">
             <v/>
           </cell>
-          <cell r="J254"/>
+          <cell r="J254">
+            <v>0</v>
+          </cell>
           <cell r="K254" t="str">
             <v>账期付款</v>
           </cell>
@@ -21637,7 +22143,9 @@
           <cell r="I255" t="str">
             <v/>
           </cell>
-          <cell r="J255"/>
+          <cell r="J255">
+            <v>0</v>
+          </cell>
           <cell r="K255" t="str">
             <v>预付款</v>
           </cell>
@@ -21715,7 +22223,9 @@
           <cell r="I256" t="str">
             <v/>
           </cell>
-          <cell r="J256"/>
+          <cell r="J256">
+            <v>0</v>
+          </cell>
           <cell r="K256" t="str">
             <v>预付款</v>
           </cell>
@@ -21793,7 +22303,9 @@
           <cell r="I257" t="str">
             <v/>
           </cell>
-          <cell r="J257"/>
+          <cell r="J257">
+            <v>0</v>
+          </cell>
           <cell r="K257" t="str">
             <v>预付款</v>
           </cell>
@@ -21871,7 +22383,9 @@
           <cell r="I258" t="str">
             <v>市场部主管</v>
           </cell>
-          <cell r="J258"/>
+          <cell r="J258">
+            <v>0</v>
+          </cell>
           <cell r="K258" t="str">
             <v>预付款</v>
           </cell>
@@ -21949,7 +22463,9 @@
           <cell r="I259" t="str">
             <v/>
           </cell>
-          <cell r="J259"/>
+          <cell r="J259">
+            <v>0</v>
+          </cell>
           <cell r="K259" t="str">
             <v>预付款</v>
           </cell>
@@ -22027,7 +22543,9 @@
           <cell r="I260" t="str">
             <v/>
           </cell>
-          <cell r="J260"/>
+          <cell r="J260">
+            <v>0</v>
+          </cell>
           <cell r="K260" t="str">
             <v>账期付款</v>
           </cell>
@@ -22105,7 +22623,9 @@
           <cell r="I261" t="str">
             <v/>
           </cell>
-          <cell r="J261"/>
+          <cell r="J261">
+            <v>0</v>
+          </cell>
           <cell r="K261" t="str">
             <v>账期付款</v>
           </cell>
@@ -22183,7 +22703,9 @@
           <cell r="I262" t="str">
             <v/>
           </cell>
-          <cell r="J262"/>
+          <cell r="J262">
+            <v>0</v>
+          </cell>
           <cell r="K262" t="str">
             <v>账期付款</v>
           </cell>
@@ -22261,7 +22783,9 @@
           <cell r="I263" t="str">
             <v/>
           </cell>
-          <cell r="J263"/>
+          <cell r="J263">
+            <v>0</v>
+          </cell>
           <cell r="K263" t="str">
             <v>账期付款</v>
           </cell>
@@ -22339,7 +22863,9 @@
           <cell r="I264" t="str">
             <v/>
           </cell>
-          <cell r="J264"/>
+          <cell r="J264">
+            <v>0</v>
+          </cell>
           <cell r="K264" t="str">
             <v>账期付款</v>
           </cell>
@@ -22417,7 +22943,9 @@
           <cell r="I265" t="str">
             <v>媒介经理</v>
           </cell>
-          <cell r="J265"/>
+          <cell r="J265">
+            <v>0</v>
+          </cell>
           <cell r="K265" t="str">
             <v>预付款</v>
           </cell>
@@ -22495,7 +23023,9 @@
           <cell r="I266" t="str">
             <v/>
           </cell>
-          <cell r="J266"/>
+          <cell r="J266">
+            <v>0</v>
+          </cell>
           <cell r="K266" t="str">
             <v>预付款,账期付款</v>
           </cell>
@@ -22573,7 +23103,9 @@
           <cell r="I267" t="str">
             <v/>
           </cell>
-          <cell r="J267"/>
+          <cell r="J267">
+            <v>0</v>
+          </cell>
           <cell r="K267" t="str">
             <v>账期付款</v>
           </cell>
@@ -22651,7 +23183,9 @@
           <cell r="I268" t="str">
             <v/>
           </cell>
-          <cell r="J268"/>
+          <cell r="J268">
+            <v>0</v>
+          </cell>
           <cell r="K268" t="str">
             <v>预付款</v>
           </cell>
@@ -22729,7 +23263,9 @@
           <cell r="I269" t="str">
             <v/>
           </cell>
-          <cell r="J269"/>
+          <cell r="J269">
+            <v>0</v>
+          </cell>
           <cell r="K269" t="str">
             <v>预付款</v>
           </cell>
@@ -22807,7 +23343,9 @@
           <cell r="I270" t="str">
             <v>商务媒介</v>
           </cell>
-          <cell r="J270"/>
+          <cell r="J270">
+            <v>0</v>
+          </cell>
           <cell r="K270" t="str">
             <v>预付款</v>
           </cell>
@@ -22885,7 +23423,9 @@
           <cell r="I271" t="str">
             <v>移动事业部|渠道副总监</v>
           </cell>
-          <cell r="J271"/>
+          <cell r="J271">
+            <v>0</v>
+          </cell>
           <cell r="K271" t="str">
             <v>预付款</v>
           </cell>
@@ -22963,7 +23503,9 @@
           <cell r="I272" t="str">
             <v>媒介主管</v>
           </cell>
-          <cell r="J272"/>
+          <cell r="J272">
+            <v>0</v>
+          </cell>
           <cell r="K272" t="str">
             <v>预存款</v>
           </cell>
@@ -23041,7 +23583,9 @@
           <cell r="I273" t="str">
             <v/>
           </cell>
-          <cell r="J273"/>
+          <cell r="J273">
+            <v>0</v>
+          </cell>
           <cell r="K273" t="str">
             <v>账期付款,预存款</v>
           </cell>
@@ -23119,7 +23663,9 @@
           <cell r="I274" t="str">
             <v/>
           </cell>
-          <cell r="J274"/>
+          <cell r="J274">
+            <v>0</v>
+          </cell>
           <cell r="K274" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -23197,7 +23743,9 @@
           <cell r="I275" t="str">
             <v/>
           </cell>
-          <cell r="J275"/>
+          <cell r="J275">
+            <v>0</v>
+          </cell>
           <cell r="K275" t="str">
             <v>预付款</v>
           </cell>
@@ -23275,7 +23823,9 @@
           <cell r="I276" t="str">
             <v/>
           </cell>
-          <cell r="J276"/>
+          <cell r="J276">
+            <v>0</v>
+          </cell>
           <cell r="K276" t="str">
             <v>预付款</v>
           </cell>
@@ -23353,7 +23903,9 @@
           <cell r="I277" t="str">
             <v/>
           </cell>
-          <cell r="J277"/>
+          <cell r="J277">
+            <v>0</v>
+          </cell>
           <cell r="K277" t="str">
             <v>账期付款</v>
           </cell>
@@ -23431,7 +23983,9 @@
           <cell r="I278" t="str">
             <v/>
           </cell>
-          <cell r="J278"/>
+          <cell r="J278">
+            <v>0</v>
+          </cell>
           <cell r="K278" t="str">
             <v>账期付款</v>
           </cell>
@@ -23509,7 +24063,9 @@
           <cell r="I279" t="str">
             <v>全国渠道经理</v>
           </cell>
-          <cell r="J279"/>
+          <cell r="J279">
+            <v>0</v>
+          </cell>
           <cell r="K279" t="str">
             <v>预付款</v>
           </cell>
@@ -23587,7 +24143,9 @@
           <cell r="I280" t="str">
             <v/>
           </cell>
-          <cell r="J280"/>
+          <cell r="J280">
+            <v>0</v>
+          </cell>
           <cell r="K280" t="str">
             <v>账期付款</v>
           </cell>
@@ -23665,7 +24223,9 @@
           <cell r="I281" t="str">
             <v>媒介主管</v>
           </cell>
-          <cell r="J281"/>
+          <cell r="J281">
+            <v>0</v>
+          </cell>
           <cell r="K281" t="str">
             <v>预付款</v>
           </cell>
@@ -23743,7 +24303,9 @@
           <cell r="I282" t="str">
             <v/>
           </cell>
-          <cell r="J282"/>
+          <cell r="J282">
+            <v>0</v>
+          </cell>
           <cell r="K282" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -23821,7 +24383,9 @@
           <cell r="I283" t="str">
             <v/>
           </cell>
-          <cell r="J283"/>
+          <cell r="J283">
+            <v>0</v>
+          </cell>
           <cell r="K283" t="str">
             <v>预存款,账期付款</v>
           </cell>
@@ -23899,7 +24463,9 @@
           <cell r="I284" t="str">
             <v>高级渠道经理</v>
           </cell>
-          <cell r="J284"/>
+          <cell r="J284">
+            <v>0</v>
+          </cell>
           <cell r="K284" t="str">
             <v>账期付款,预存款,预付款</v>
           </cell>
@@ -23977,7 +24543,9 @@
           <cell r="I285" t="str">
             <v/>
           </cell>
-          <cell r="J285"/>
+          <cell r="J285">
+            <v>0</v>
+          </cell>
           <cell r="K285" t="str">
             <v>预付款</v>
           </cell>
@@ -24055,7 +24623,9 @@
           <cell r="I286" t="str">
             <v/>
           </cell>
-          <cell r="J286"/>
+          <cell r="J286">
+            <v>0</v>
+          </cell>
           <cell r="K286" t="str">
             <v>预付款</v>
           </cell>
@@ -24133,7 +24703,9 @@
           <cell r="I287" t="str">
             <v/>
           </cell>
-          <cell r="J287"/>
+          <cell r="J287">
+            <v>0</v>
+          </cell>
           <cell r="K287" t="str">
             <v>预付款</v>
           </cell>
@@ -24211,7 +24783,9 @@
           <cell r="I288" t="str">
             <v/>
           </cell>
-          <cell r="J288"/>
+          <cell r="J288">
+            <v>0</v>
+          </cell>
           <cell r="K288" t="str">
             <v>预付款</v>
           </cell>
@@ -24289,7 +24863,9 @@
           <cell r="I289" t="str">
             <v/>
           </cell>
-          <cell r="J289"/>
+          <cell r="J289">
+            <v>0</v>
+          </cell>
           <cell r="K289" t="str">
             <v>账期付款</v>
           </cell>
@@ -24367,7 +24943,9 @@
           <cell r="I290" t="str">
             <v/>
           </cell>
-          <cell r="J290"/>
+          <cell r="J290">
+            <v>0</v>
+          </cell>
           <cell r="K290" t="str">
             <v>预付款</v>
           </cell>
@@ -24445,7 +25023,9 @@
           <cell r="I291" t="str">
             <v/>
           </cell>
-          <cell r="J291"/>
+          <cell r="J291">
+            <v>0</v>
+          </cell>
           <cell r="K291" t="str">
             <v>预存款</v>
           </cell>
@@ -24523,7 +25103,9 @@
           <cell r="I292" t="str">
             <v/>
           </cell>
-          <cell r="J292"/>
+          <cell r="J292">
+            <v>0</v>
+          </cell>
           <cell r="K292" t="str">
             <v>预付款</v>
           </cell>
@@ -24601,7 +25183,9 @@
           <cell r="I293" t="str">
             <v/>
           </cell>
-          <cell r="J293"/>
+          <cell r="J293">
+            <v>0</v>
+          </cell>
           <cell r="K293" t="str">
             <v>预付款</v>
           </cell>
@@ -24679,7 +25263,9 @@
           <cell r="I294" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J294"/>
+          <cell r="J294">
+            <v>0</v>
+          </cell>
           <cell r="K294" t="str">
             <v>预付款</v>
           </cell>
@@ -24757,7 +25343,9 @@
           <cell r="I295" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J295"/>
+          <cell r="J295">
+            <v>0</v>
+          </cell>
           <cell r="K295" t="str">
             <v>预付款</v>
           </cell>
@@ -24835,7 +25423,9 @@
           <cell r="I296" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J296"/>
+          <cell r="J296">
+            <v>0</v>
+          </cell>
           <cell r="K296" t="str">
             <v>预付款</v>
           </cell>
@@ -24913,7 +25503,9 @@
           <cell r="I297" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J297"/>
+          <cell r="J297">
+            <v>0</v>
+          </cell>
           <cell r="K297" t="str">
             <v>预付款</v>
           </cell>
@@ -24991,7 +25583,9 @@
           <cell r="I298" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J298"/>
+          <cell r="J298">
+            <v>0</v>
+          </cell>
           <cell r="K298" t="str">
             <v>预付款</v>
           </cell>
@@ -25069,7 +25663,9 @@
           <cell r="I299" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J299"/>
+          <cell r="J299">
+            <v>0</v>
+          </cell>
           <cell r="K299" t="str">
             <v>预付款</v>
           </cell>
@@ -25147,7 +25743,9 @@
           <cell r="I300" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J300"/>
+          <cell r="J300">
+            <v>0</v>
+          </cell>
           <cell r="K300" t="str">
             <v>预付款</v>
           </cell>
@@ -25225,7 +25823,9 @@
           <cell r="I301" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J301"/>
+          <cell r="J301">
+            <v>0</v>
+          </cell>
           <cell r="K301" t="str">
             <v>预付款</v>
           </cell>
@@ -25303,7 +25903,9 @@
           <cell r="I302" t="str">
             <v>营销中心总监</v>
           </cell>
-          <cell r="J302"/>
+          <cell r="J302">
+            <v>0</v>
+          </cell>
           <cell r="K302" t="str">
             <v>预付款</v>
           </cell>
@@ -25381,7 +25983,9 @@
           <cell r="I303" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J303"/>
+          <cell r="J303">
+            <v>0</v>
+          </cell>
           <cell r="K303" t="str">
             <v>预付款</v>
           </cell>
@@ -25459,7 +26063,9 @@
           <cell r="I304" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J304"/>
+          <cell r="J304">
+            <v>0</v>
+          </cell>
           <cell r="K304" t="str">
             <v>账期付款</v>
           </cell>
@@ -25537,7 +26143,9 @@
           <cell r="I305" t="str">
             <v>媒介</v>
           </cell>
-          <cell r="J305"/>
+          <cell r="J305">
+            <v>0</v>
+          </cell>
           <cell r="K305" t="str">
             <v>账期付款</v>
           </cell>
@@ -25615,7 +26223,9 @@
           <cell r="I306" t="str">
             <v/>
           </cell>
-          <cell r="J306"/>
+          <cell r="J306">
+            <v>0</v>
+          </cell>
           <cell r="K306" t="str">
             <v>预付款</v>
           </cell>
@@ -25693,7 +26303,9 @@
           <cell r="I307" t="str">
             <v/>
           </cell>
-          <cell r="J307"/>
+          <cell r="J307">
+            <v>0</v>
+          </cell>
           <cell r="K307" t="str">
             <v>预付款</v>
           </cell>
@@ -25771,7 +26383,9 @@
           <cell r="I308" t="str">
             <v>渠道经理</v>
           </cell>
-          <cell r="J308"/>
+          <cell r="J308">
+            <v>0</v>
+          </cell>
           <cell r="K308" t="str">
             <v>账期付款</v>
           </cell>
@@ -25849,7 +26463,9 @@
           <cell r="I309" t="str">
             <v>商务经理</v>
           </cell>
-          <cell r="J309"/>
+          <cell r="J309">
+            <v>0</v>
+          </cell>
           <cell r="K309" t="str">
             <v>预存款</v>
           </cell>
@@ -25927,7 +26543,9 @@
           <cell r="I310" t="str">
             <v>运营总监</v>
           </cell>
-          <cell r="J310"/>
+          <cell r="J310">
+            <v>0</v>
+          </cell>
           <cell r="K310" t="str">
             <v>预付款</v>
           </cell>
@@ -26005,7 +26623,9 @@
           <cell r="I311" t="str">
             <v>inside</v>
           </cell>
-          <cell r="J311"/>
+          <cell r="J311">
+            <v>0</v>
+          </cell>
           <cell r="K311" t="str">
             <v>账期付款</v>
           </cell>
@@ -26083,7 +26703,9 @@
           <cell r="I312" t="str">
             <v>市场部主管</v>
           </cell>
-          <cell r="J312"/>
+          <cell r="J312">
+            <v>0</v>
+          </cell>
           <cell r="K312" t="str">
             <v>预付款</v>
           </cell>
@@ -26178,17 +26800,39 @@
           <cell r="A1" t="str">
             <v>2020年3月媒体返点政策</v>
           </cell>
-          <cell r="B1"/>
-          <cell r="C1"/>
-          <cell r="D1"/>
-          <cell r="E1"/>
-          <cell r="F1"/>
-          <cell r="G1"/>
-          <cell r="H1"/>
-          <cell r="I1"/>
-          <cell r="J1"/>
-          <cell r="K1"/>
-          <cell r="L1"/>
+          <cell r="B1">
+            <v>0</v>
+          </cell>
+          <cell r="C1">
+            <v>0</v>
+          </cell>
+          <cell r="D1">
+            <v>0</v>
+          </cell>
+          <cell r="E1">
+            <v>0</v>
+          </cell>
+          <cell r="F1">
+            <v>0</v>
+          </cell>
+          <cell r="G1">
+            <v>0</v>
+          </cell>
+          <cell r="H1">
+            <v>0</v>
+          </cell>
+          <cell r="I1">
+            <v>0</v>
+          </cell>
+          <cell r="J1">
+            <v>0</v>
+          </cell>
+          <cell r="K1">
+            <v>0</v>
+          </cell>
+          <cell r="L1">
+            <v>0</v>
+          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
@@ -26235,22 +26879,36 @@
           <cell r="B3" t="str">
             <v>今日头条-2019</v>
           </cell>
-          <cell r="C3"/>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
           <cell r="D3">
             <v>0.16</v>
           </cell>
           <cell r="E3">
             <v>7.0000000000000007E-2</v>
           </cell>
-          <cell r="F3"/>
-          <cell r="G3"/>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
           <cell r="H3">
             <v>0.16</v>
           </cell>
-          <cell r="I3"/>
-          <cell r="J3"/>
-          <cell r="K3"/>
-          <cell r="L3"/>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
+          <cell r="K3">
+            <v>0</v>
+          </cell>
+          <cell r="L3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -26274,10 +26932,18 @@
           <cell r="G4">
             <v>0.08</v>
           </cell>
-          <cell r="H4"/>
-          <cell r="I4"/>
-          <cell r="J4"/>
-          <cell r="K4"/>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
+            <v>0</v>
+          </cell>
           <cell r="L4" t="str">
             <v>Q1政策统一按此版调整</v>
           </cell>
@@ -26298,13 +26964,27 @@
           <cell r="E5">
             <v>0.04</v>
           </cell>
-          <cell r="F5"/>
-          <cell r="G5"/>
-          <cell r="H5"/>
-          <cell r="I5"/>
-          <cell r="J5"/>
-          <cell r="K5"/>
-          <cell r="L5"/>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -26322,14 +27002,24 @@
           <cell r="E6">
             <v>0.21299999999999999</v>
           </cell>
-          <cell r="F6"/>
-          <cell r="G6"/>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
           <cell r="H6">
             <v>0.21299999999999999</v>
           </cell>
-          <cell r="I6"/>
-          <cell r="J6"/>
-          <cell r="K6"/>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
           <cell r="L6" t="str">
             <v>Q1完成率80%档，Q1政策统一按此版调整</v>
           </cell>
@@ -26347,15 +27037,27 @@
           <cell r="D7">
             <v>0.15</v>
           </cell>
-          <cell r="E7"/>
-          <cell r="F7"/>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
           <cell r="G7">
             <v>0.15</v>
           </cell>
-          <cell r="H7"/>
-          <cell r="I7"/>
-          <cell r="J7"/>
-          <cell r="K7"/>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
           <cell r="L7" t="str">
             <v>3月完成率90%档，仅调3月返点，1-2月不变</v>
           </cell>
@@ -26376,15 +27078,27 @@
           <cell r="E8">
             <v>0.05</v>
           </cell>
-          <cell r="F8"/>
-          <cell r="G8"/>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
           <cell r="H8">
             <v>0.05</v>
           </cell>
-          <cell r="I8"/>
-          <cell r="J8"/>
-          <cell r="K8"/>
-          <cell r="L8"/>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -26402,15 +27116,27 @@
           <cell r="E9">
             <v>0.15</v>
           </cell>
-          <cell r="F9"/>
-          <cell r="G9"/>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
           <cell r="H9">
             <v>0.15</v>
           </cell>
-          <cell r="I9"/>
-          <cell r="J9"/>
-          <cell r="K9"/>
-          <cell r="L9"/>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -26428,15 +27154,27 @@
           <cell r="E10">
             <v>0.05</v>
           </cell>
-          <cell r="F10"/>
-          <cell r="G10"/>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
           <cell r="H10">
             <v>0.05</v>
           </cell>
-          <cell r="I10"/>
-          <cell r="J10"/>
-          <cell r="K10"/>
-          <cell r="L10"/>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -26454,15 +27192,27 @@
           <cell r="E11">
             <v>0</v>
           </cell>
-          <cell r="F11"/>
-          <cell r="G11"/>
-          <cell r="H11"/>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
           <cell r="I11">
             <v>0</v>
           </cell>
-          <cell r="J11"/>
-          <cell r="K11"/>
-          <cell r="L11"/>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
+          <cell r="K11">
+            <v>0</v>
+          </cell>
+          <cell r="L11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -26480,15 +27230,27 @@
           <cell r="E12">
             <v>0.04</v>
           </cell>
-          <cell r="F12"/>
-          <cell r="G12"/>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
           <cell r="H12">
             <v>0.04</v>
           </cell>
-          <cell r="I12"/>
-          <cell r="J12"/>
-          <cell r="K12"/>
-          <cell r="L12"/>
+          <cell r="I12">
+            <v>0</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -26506,16 +27268,24 @@
           <cell r="E13">
             <v>7.4999999999999997E-2</v>
           </cell>
-          <cell r="F13"/>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
           <cell r="G13">
             <v>7.4999999999999997E-2</v>
           </cell>
           <cell r="H13">
             <v>7.4999999999999997E-2</v>
           </cell>
-          <cell r="I13"/>
-          <cell r="J13"/>
-          <cell r="K13"/>
+          <cell r="I13">
+            <v>0</v>
+          </cell>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
+          <cell r="K13">
+            <v>0</v>
+          </cell>
           <cell r="L13" t="str">
             <v>商店60%、非商店50%；Q1统一按此调整</v>
           </cell>
@@ -26527,20 +27297,30 @@
           <cell r="B14" t="str">
             <v>华为--云动时代-PPS</v>
           </cell>
-          <cell r="C14"/>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
           <cell r="D14">
             <v>0.08</v>
           </cell>
-          <cell r="E14"/>
-          <cell r="F14"/>
-          <cell r="G14"/>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
           <cell r="H14">
             <v>0.04</v>
           </cell>
           <cell r="I14">
             <v>0</v>
           </cell>
-          <cell r="J14"/>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
           <cell r="K14">
             <v>0.04</v>
           </cell>
@@ -26555,20 +27335,30 @@
           <cell r="B15" t="str">
             <v>华为--宁波聚塔-PPS</v>
           </cell>
-          <cell r="C15"/>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
           <cell r="D15">
             <v>0.08</v>
           </cell>
-          <cell r="E15"/>
-          <cell r="F15"/>
-          <cell r="G15"/>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
           <cell r="H15">
             <v>0.04</v>
           </cell>
           <cell r="I15">
             <v>0</v>
           </cell>
-          <cell r="J15"/>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
           <cell r="K15">
             <v>0.04</v>
           </cell>
@@ -26589,13 +27379,27 @@
           <cell r="D16">
             <v>0</v>
           </cell>
-          <cell r="E16"/>
-          <cell r="F16"/>
-          <cell r="G16"/>
-          <cell r="H16"/>
-          <cell r="I16"/>
-          <cell r="J16"/>
-          <cell r="K16"/>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>0</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+          <cell r="K16">
+            <v>0</v>
+          </cell>
           <cell r="L16" t="str">
             <v>屈臣氏专用</v>
           </cell>
@@ -26616,12 +27420,24 @@
           <cell r="E17">
             <v>0.02</v>
           </cell>
-          <cell r="F17"/>
-          <cell r="G17"/>
-          <cell r="H17"/>
-          <cell r="I17"/>
-          <cell r="J17"/>
-          <cell r="K17"/>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>0</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
           <cell r="L17" t="str">
             <v>屈臣氏之外客户使用</v>
           </cell>
@@ -26639,13 +27455,27 @@
           <cell r="D18">
             <v>0</v>
           </cell>
-          <cell r="E18"/>
-          <cell r="F18"/>
-          <cell r="G18"/>
-          <cell r="H18"/>
-          <cell r="I18"/>
-          <cell r="J18"/>
-          <cell r="K18"/>
+          <cell r="E18">
+            <v>0</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="G18">
+            <v>0</v>
+          </cell>
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>0</v>
+          </cell>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
+          <cell r="K18">
+            <v>0</v>
+          </cell>
           <cell r="L18" t="str">
             <v>已停止合作</v>
           </cell>
@@ -26666,12 +27496,18 @@
           <cell r="E19">
             <v>0.05</v>
           </cell>
-          <cell r="F19"/>
-          <cell r="G19"/>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="G19">
+            <v>0</v>
+          </cell>
           <cell r="H19">
             <v>0</v>
           </cell>
-          <cell r="I19"/>
+          <cell r="I19">
+            <v>0</v>
+          </cell>
           <cell r="J19">
             <v>0.05</v>
           </cell>
@@ -26698,14 +27534,18 @@
           <cell r="E20">
             <v>0.05</v>
           </cell>
-          <cell r="F20"/>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
           <cell r="G20">
             <v>0.05</v>
           </cell>
           <cell r="H20">
             <v>0</v>
           </cell>
-          <cell r="I20"/>
+          <cell r="I20">
+            <v>0</v>
+          </cell>
           <cell r="J20">
             <v>0.05</v>
           </cell>
@@ -26726,17 +27566,33 @@
           <cell r="C21">
             <v>0.03</v>
           </cell>
-          <cell r="D21"/>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
           <cell r="E21">
             <v>7.0000000000000007E-2</v>
           </cell>
-          <cell r="F21"/>
-          <cell r="G21"/>
-          <cell r="H21"/>
-          <cell r="I21"/>
-          <cell r="J21"/>
-          <cell r="K21"/>
-          <cell r="L21"/>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>0</v>
+          </cell>
+          <cell r="H21">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>0</v>
+          </cell>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
+          <cell r="K21">
+            <v>0</v>
+          </cell>
+          <cell r="L21">
+            <v>0</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -26748,17 +27604,33 @@
           <cell r="C22">
             <v>0.06</v>
           </cell>
-          <cell r="D22"/>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
           <cell r="E22">
             <v>0.1</v>
           </cell>
-          <cell r="F22"/>
-          <cell r="G22"/>
-          <cell r="H22"/>
-          <cell r="I22"/>
-          <cell r="J22"/>
-          <cell r="K22"/>
-          <cell r="L22"/>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>0</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+          <cell r="K22">
+            <v>0</v>
+          </cell>
+          <cell r="L22">
+            <v>0</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
@@ -26770,17 +27642,33 @@
           <cell r="C23">
             <v>0.02</v>
           </cell>
-          <cell r="D23"/>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
           <cell r="E23">
             <v>0.04</v>
           </cell>
-          <cell r="F23"/>
-          <cell r="G23"/>
-          <cell r="H23"/>
-          <cell r="I23"/>
-          <cell r="J23"/>
-          <cell r="K23"/>
-          <cell r="L23"/>
+          <cell r="F23">
+            <v>0</v>
+          </cell>
+          <cell r="G23">
+            <v>0</v>
+          </cell>
+          <cell r="H23">
+            <v>0</v>
+          </cell>
+          <cell r="I23">
+            <v>0</v>
+          </cell>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
+          <cell r="K23">
+            <v>0</v>
+          </cell>
+          <cell r="L23">
+            <v>0</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
@@ -26789,17 +27677,33 @@
           <cell r="B24" t="str">
             <v>聚流宝</v>
           </cell>
-          <cell r="C24"/>
-          <cell r="D24"/>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
           <cell r="E24">
             <v>0.1</v>
           </cell>
-          <cell r="F24"/>
-          <cell r="G24"/>
-          <cell r="H24"/>
-          <cell r="I24"/>
-          <cell r="J24"/>
-          <cell r="K24"/>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="G24">
+            <v>0</v>
+          </cell>
+          <cell r="H24">
+            <v>0</v>
+          </cell>
+          <cell r="I24">
+            <v>0</v>
+          </cell>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
+          <cell r="K24">
+            <v>0</v>
+          </cell>
           <cell r="L24" t="str">
             <v>后返比例</v>
           </cell>
@@ -26814,17 +27718,33 @@
           <cell r="C25">
             <v>0.02</v>
           </cell>
-          <cell r="D25"/>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
           <cell r="E25">
             <v>0.04</v>
           </cell>
-          <cell r="F25"/>
-          <cell r="G25"/>
-          <cell r="H25"/>
-          <cell r="I25"/>
-          <cell r="J25"/>
-          <cell r="K25"/>
-          <cell r="L25"/>
+          <cell r="F25">
+            <v>0</v>
+          </cell>
+          <cell r="G25">
+            <v>0</v>
+          </cell>
+          <cell r="H25">
+            <v>0</v>
+          </cell>
+          <cell r="I25">
+            <v>0</v>
+          </cell>
+          <cell r="J25">
+            <v>0</v>
+          </cell>
+          <cell r="K25">
+            <v>0</v>
+          </cell>
+          <cell r="L25">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6"/>
@@ -27140,7 +28060,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J215" sqref="J215"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -43059,7 +43979,7 @@
       <c r="P182" s="92"/>
       <c r="Q182" s="89"/>
       <c r="R182" s="93">
-        <v>70024.240000000005</v>
+        <v>68898.81</v>
       </c>
       <c r="S182" s="93">
         <v>0</v>
@@ -43069,7 +43989,7 @@
       </c>
       <c r="U182" s="93">
         <f t="shared" si="21"/>
-        <v>70023.360000000001</v>
+        <v>68897.929999999993</v>
       </c>
       <c r="V182" s="93">
         <f t="shared" si="22"/>
@@ -48821,6 +49741,7 @@
       <c r="AL236" s="107"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM236"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="Q126">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>

--- a/2020年1-4月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-4月金源消耗表（财务运营共享版）.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="313">
   <si>
     <t>周期</t>
   </si>
@@ -1118,6 +1118,14 @@
     <t>金源广告</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>修改期初余额</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月未纳补</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -28059,8 +28067,8 @@
   <dimension ref="A1:AM236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28086,8 +28094,9 @@
     <col min="25" max="25" width="12.25" customWidth="1"/>
     <col min="26" max="26" width="13.375" customWidth="1"/>
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -48228,18 +48237,14 @@
       </c>
       <c r="P222" s="92"/>
       <c r="Q222" s="89"/>
-      <c r="R222" s="93">
-        <v>-2264.0100000000166</v>
-      </c>
+      <c r="R222" s="93"/>
       <c r="S222" s="93">
         <v>0</v>
       </c>
-      <c r="T222" s="93">
-        <v>5027.09</v>
-      </c>
+      <c r="T222" s="93"/>
       <c r="U222" s="93">
         <f t="shared" si="21"/>
-        <v>-7291.1000000000167</v>
+        <v>0</v>
       </c>
       <c r="V222" s="93">
         <v>0</v>
@@ -48270,7 +48275,7 @@
       </c>
       <c r="AG222" s="93">
         <f t="shared" si="27"/>
-        <v>3808.401515151515</v>
+        <v>0</v>
       </c>
       <c r="AH222" s="93"/>
       <c r="AI222" s="93">
@@ -48278,7 +48283,7 @@
         <v>0</v>
       </c>
       <c r="AJ222" s="93">
-        <v>5027.09</v>
+        <v>0</v>
       </c>
       <c r="AK222" s="93"/>
       <c r="AL222" s="93">
@@ -48448,15 +48453,15 @@
         <v>150000</v>
       </c>
       <c r="T224" s="93">
-        <v>0</v>
+        <v>5027.09</v>
       </c>
       <c r="U224" s="93">
         <f t="shared" si="21"/>
-        <v>150000</v>
+        <v>144972.91</v>
       </c>
       <c r="V224" s="93">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4926.5482000000002</v>
       </c>
       <c r="W224" s="89"/>
       <c r="X224" s="22">
@@ -48465,40 +48470,45 @@
       </c>
       <c r="Y224" s="94">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>100.54179999999997</v>
       </c>
       <c r="Z224" s="94">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>5027.09</v>
       </c>
       <c r="AA224" s="95">
         <v>0.05</v>
       </c>
       <c r="AB224" s="89"/>
-      <c r="AC224" s="89"/>
+      <c r="AC224" s="89" t="s">
+        <v>312</v>
+      </c>
       <c r="AD224" s="89"/>
       <c r="AE224" s="88" t="s">
         <v>40</v>
       </c>
       <c r="AF224" s="91">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AG224" s="93">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>3866.9923076923078</v>
       </c>
       <c r="AH224" s="93"/>
       <c r="AI224" s="93">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="AJ224" s="93">
-        <v>0</v>
-      </c>
-      <c r="AK224" s="93"/>
+        <v>5027.09</v>
+      </c>
+      <c r="AK224" s="93">
+        <f>R224+AH224+S224+AI224-AJ224-U224</f>
+        <v>45000</v>
+      </c>
       <c r="AL224" s="93">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4926.5482000000002</v>
       </c>
     </row>
     <row r="225" spans="1:39" ht="14.25">
@@ -48550,21 +48560,21 @@
         <v>237</v>
       </c>
       <c r="R225" s="93">
-        <v>447576.49999999895</v>
+        <v>546995.58999999613</v>
       </c>
       <c r="S225" s="93">
-        <v>0</v>
+        <v>623000</v>
       </c>
       <c r="T225" s="93">
-        <v>447576.49999999895</v>
+        <v>1156673.58</v>
       </c>
       <c r="U225" s="93">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>13322.009999996051</v>
       </c>
       <c r="V225" s="93">
         <f t="shared" si="22"/>
-        <v>444211.26315789373</v>
+        <v>1147976.7861654137</v>
       </c>
       <c r="W225" s="93">
         <v>32256</v>
@@ -48575,17 +48585,19 @@
       </c>
       <c r="Y225" s="94">
         <f t="shared" si="29"/>
-        <v>3365.2368421052233</v>
+        <v>8696.793834586395</v>
       </c>
       <c r="Z225" s="94">
         <f t="shared" si="23"/>
-        <v>447576.49999999895</v>
+        <v>1156673.58</v>
       </c>
       <c r="AA225" s="95">
         <v>0.05</v>
       </c>
       <c r="AB225" s="89"/>
-      <c r="AC225" s="89"/>
+      <c r="AC225" s="89" t="s">
+        <v>311</v>
+      </c>
       <c r="AD225" s="89"/>
       <c r="AE225" s="88" t="s">
         <v>40</v>
@@ -48595,24 +48607,29 @@
       </c>
       <c r="AG225" s="93">
         <f t="shared" si="27"/>
-        <v>1158873.1060606057</v>
-      </c>
-      <c r="AH225" s="93"/>
+        <v>1156681.0833333333</v>
+      </c>
+      <c r="AH225" s="93">
+        <v>175025.15000000584</v>
+      </c>
       <c r="AI225" s="93">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>199360</v>
       </c>
       <c r="AJ225" s="93">
-        <v>1529712.4999999995</v>
-      </c>
-      <c r="AK225" s="93"/>
+        <v>1526819.03</v>
+      </c>
+      <c r="AK225" s="93">
+        <f>R225+AH225+S225+AI225-AJ225-U225</f>
+        <v>4239.700000006007</v>
+      </c>
       <c r="AL225" s="93">
         <f t="shared" si="25"/>
-        <v>1150159.7744360899</v>
+        <v>1147984.2330827068</v>
       </c>
       <c r="AM225" s="58">
         <f>AL225-V225</f>
-        <v>705948.51127819624</v>
+        <v>7.4469172931276262</v>
       </c>
     </row>
     <row r="226" spans="1:39" ht="14.25">
@@ -48667,14 +48684,14 @@
         <v>0</v>
       </c>
       <c r="S226" s="93">
-        <v>2822214.72</v>
+        <v>2199214.7200000002</v>
       </c>
       <c r="T226" s="93">
-        <v>711990.55000000109</v>
+        <v>2893.4699999998202</v>
       </c>
       <c r="U226" s="93">
         <f t="shared" si="21"/>
-        <v>2110224.169999999</v>
+        <v>2196321.2500000005</v>
       </c>
       <c r="V226" s="93">
         <f>623000+200000</f>
@@ -48689,7 +48706,7 @@
       </c>
       <c r="Y226" s="94">
         <f t="shared" si="29"/>
-        <v>-111009.44999999891</v>
+        <v>-820106.53000000014</v>
       </c>
       <c r="Z226" s="94">
         <v>623000</v>
@@ -48698,7 +48715,9 @@
         <v>0.05</v>
       </c>
       <c r="AB226" s="89"/>
-      <c r="AC226" s="89"/>
+      <c r="AC226" s="89" t="s">
+        <v>312</v>
+      </c>
       <c r="AD226" s="89"/>
       <c r="AE226" s="88" t="s">
         <v>40</v>
@@ -48708,20 +48727,23 @@
       </c>
       <c r="AG226" s="93">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2225.7461538461926</v>
       </c>
       <c r="AH226" s="93"/>
       <c r="AI226" s="93">
         <f t="shared" si="24"/>
-        <v>846664.41600000008</v>
+        <v>659764.41600000008</v>
       </c>
       <c r="AJ226" s="93">
-        <v>0</v>
-      </c>
-      <c r="AK226" s="93"/>
+        <v>2893.4700000000503</v>
+      </c>
+      <c r="AK226" s="93">
+        <f>R226+AH226+S226+AI226-AJ226-U226</f>
+        <v>659764.41599999974</v>
+      </c>
       <c r="AL226" s="93">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2225.7461538461926</v>
       </c>
     </row>
     <row r="227" spans="1:39" ht="14.25">
@@ -51431,20 +51453,20 @@
       </c>
       <c r="O26" s="71">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A26,客户表!A:A,E26,客户表!M:M,F26)+SUMIFS(客户表!W:W,客户表!I:I,A26,客户表!A:A,E26,客户表!M:M,F26)+SUMIFS(客户表!AM:AM,客户表!I:I,A26,客户表!A:A,E26,客户表!M:M,F26)</f>
-        <v>2068056.9006497739</v>
+        <v>2070807.9074963906</v>
       </c>
       <c r="P26" s="81"/>
       <c r="Q26" s="71">
         <f t="shared" si="4"/>
-        <v>983481.99495261686</v>
+        <v>986077.28443055728</v>
       </c>
       <c r="R26" s="71">
         <f t="shared" si="2"/>
-        <v>983481.99495261686</v>
+        <v>986077.28443055728</v>
       </c>
       <c r="S26" s="73">
         <f t="shared" ref="S26:S30" si="8">R26/O26</f>
-        <v>0.47555847938401086</v>
+        <v>0.47617998794621463</v>
       </c>
       <c r="T26" s="83"/>
       <c r="U26" s="68" t="s">

--- a/2020年1-4月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-4月金源消耗表（财务运营共享版）.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AM$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AM$237</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$U$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="314">
   <si>
     <t>周期</t>
   </si>
@@ -1126,6 +1126,10 @@
     <t>4月未纳补</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>指数专区</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -28064,11 +28068,11 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:AM236"/>
+  <dimension ref="A1:AM237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F230" sqref="F230"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49762,8 +49766,100 @@
       <c r="AK236" s="107"/>
       <c r="AL236" s="107"/>
     </row>
+    <row r="237" spans="1:39" ht="14.25">
+      <c r="A237" s="87">
+        <v>43922</v>
+      </c>
+      <c r="B237" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C237" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D237" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="E237" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F237" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="G237" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="H237" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I237" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="J237" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="K237" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="L237" s="89"/>
+      <c r="M237" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="N237" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="O237" s="96">
+        <v>0</v>
+      </c>
+      <c r="P237" s="88"/>
+      <c r="Q237" s="89"/>
+      <c r="R237" s="93"/>
+      <c r="S237" s="93"/>
+      <c r="T237" s="93">
+        <v>24590.1</v>
+      </c>
+      <c r="U237" s="93"/>
+      <c r="V237" s="93">
+        <v>24590.1</v>
+      </c>
+      <c r="W237" s="93">
+        <f>V237*6%</f>
+        <v>1475.4059999999999</v>
+      </c>
+      <c r="X237" s="22">
+        <f t="shared" ref="X237" si="31">IF(V237-Z237&lt;0,0,IF(N237="返现",MAX(V237-Y237-Z237,0),MAX(V237-Z237,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y237" s="94">
+        <f t="shared" ref="Y237" si="32">T237-V237</f>
+        <v>0</v>
+      </c>
+      <c r="Z237" s="93">
+        <f>T237</f>
+        <v>24590.1</v>
+      </c>
+      <c r="AA237" s="95">
+        <v>0.05</v>
+      </c>
+      <c r="AB237" s="89"/>
+      <c r="AC237" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD237" s="89"/>
+      <c r="AE237" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF237" s="96">
+        <v>0</v>
+      </c>
+      <c r="AG237" s="97"/>
+      <c r="AH237" s="97"/>
+      <c r="AI237" s="97"/>
+      <c r="AJ237" s="97"/>
+      <c r="AK237" s="97"/>
+      <c r="AL237" s="97"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM236"/>
+  <autoFilter ref="A1:AM237"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="Q126">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
@@ -49792,7 +49888,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -51557,19 +51653,19 @@
         <v>281</v>
       </c>
       <c r="G28" s="72">
-        <f>5259250-1554500</f>
-        <v>3704750</v>
+        <f>5259250-1554500+24590.1</f>
+        <v>3729340.1</v>
       </c>
       <c r="H28" s="72">
-        <f>5259250-1554500</f>
-        <v>3704750</v>
+        <f>5259250-1554500+24590.1</f>
+        <v>3729340.1</v>
       </c>
       <c r="I28" s="78">
         <v>0.05</v>
       </c>
       <c r="J28" s="75">
         <f>H28*I28</f>
-        <v>185237.5</v>
+        <v>186467.005</v>
       </c>
       <c r="K28" s="75">
         <v>0</v>
@@ -51577,27 +51673,27 @@
       <c r="L28" s="75"/>
       <c r="M28" s="75">
         <f>J28-K28</f>
-        <v>185237.5</v>
+        <v>186467.005</v>
       </c>
       <c r="N28" s="68" t="s">
         <v>282</v>
       </c>
       <c r="O28" s="71">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A28,客户表!A:A,E28,客户表!M:M,F28)+SUMIFS(客户表!W:W,客户表!I:I,A28,客户表!A:A,E28,客户表!M:M,F28)</f>
-        <v>6794871.7946000006</v>
+        <v>6820937.3005999997</v>
       </c>
       <c r="P28" s="81"/>
       <c r="Q28" s="71">
         <f t="shared" si="4"/>
-        <v>3089961.5986792459</v>
+        <v>3092513.4015094335</v>
       </c>
       <c r="R28" s="71">
         <f t="shared" si="2"/>
-        <v>3089961.5986792459</v>
+        <v>3092513.4015094335</v>
       </c>
       <c r="S28" s="73">
         <f t="shared" si="8"/>
-        <v>0.45474906548419214</v>
+        <v>0.45338540221406265</v>
       </c>
       <c r="T28" s="75"/>
       <c r="U28" s="68" t="s">

--- a/2020年1-4月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-4月金源消耗表（财务运营共享版）.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="314">
   <si>
     <t>周期</t>
   </si>
@@ -1126,6 +1126,10 @@
     <t>4月未纳补</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>指数专区</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -28064,11 +28068,11 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:AM236"/>
+  <dimension ref="A1:AM237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F230" sqref="F230"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49762,6 +49766,98 @@
       <c r="AK236" s="107"/>
       <c r="AL236" s="107"/>
     </row>
+    <row r="237" spans="1:39" ht="14.25">
+      <c r="A237" s="87">
+        <v>43922</v>
+      </c>
+      <c r="B237" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C237" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D237" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="E237" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F237" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="G237" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="H237" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I237" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="J237" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="K237" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="L237" s="89"/>
+      <c r="M237" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="N237" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="O237" s="96">
+        <v>0</v>
+      </c>
+      <c r="P237" s="88"/>
+      <c r="Q237" s="89"/>
+      <c r="R237" s="93"/>
+      <c r="S237" s="93"/>
+      <c r="T237" s="93">
+        <v>24590.1</v>
+      </c>
+      <c r="U237" s="93"/>
+      <c r="V237" s="93">
+        <v>0</v>
+      </c>
+      <c r="W237" s="93">
+        <f>V237*6%</f>
+        <v>0</v>
+      </c>
+      <c r="X237" s="22">
+        <f t="shared" ref="X237" si="31">IF(V237-Z237&lt;0,0,IF(N237="返现",MAX(V237-Y237-Z237,0),MAX(V237-Z237,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y237" s="94">
+        <f t="shared" ref="Y237" si="32">T237-V237</f>
+        <v>24590.1</v>
+      </c>
+      <c r="Z237" s="93">
+        <f>T237</f>
+        <v>24590.1</v>
+      </c>
+      <c r="AA237" s="95">
+        <v>0.05</v>
+      </c>
+      <c r="AB237" s="89"/>
+      <c r="AC237" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD237" s="89"/>
+      <c r="AE237" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF237" s="96">
+        <v>0</v>
+      </c>
+      <c r="AG237" s="97"/>
+      <c r="AH237" s="97"/>
+      <c r="AI237" s="97"/>
+      <c r="AJ237" s="97"/>
+      <c r="AK237" s="97"/>
+      <c r="AL237" s="97"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AM236"/>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -49792,7 +49888,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -51557,19 +51653,19 @@
         <v>281</v>
       </c>
       <c r="G28" s="72">
-        <f>5259250-1554500</f>
-        <v>3704750</v>
+        <f>5259250-1554500+24590.1</f>
+        <v>3729340.1</v>
       </c>
       <c r="H28" s="72">
-        <f>5259250-1554500</f>
-        <v>3704750</v>
+        <f>5259250-1554500+24590.1</f>
+        <v>3729340.1</v>
       </c>
       <c r="I28" s="78">
         <v>0.05</v>
       </c>
       <c r="J28" s="75">
         <f>H28*I28</f>
-        <v>185237.5</v>
+        <v>186467.005</v>
       </c>
       <c r="K28" s="75">
         <v>0</v>
@@ -51577,7 +51673,7 @@
       <c r="L28" s="75"/>
       <c r="M28" s="75">
         <f>J28-K28</f>
-        <v>185237.5</v>
+        <v>186467.005</v>
       </c>
       <c r="N28" s="68" t="s">
         <v>282</v>
@@ -51589,15 +51685,15 @@
       <c r="P28" s="81"/>
       <c r="Q28" s="71">
         <f t="shared" si="4"/>
-        <v>3089961.5986792459</v>
+        <v>3067923.3015094344</v>
       </c>
       <c r="R28" s="71">
         <f t="shared" si="2"/>
-        <v>3089961.5986792459</v>
+        <v>3067923.3015094344</v>
       </c>
       <c r="S28" s="73">
         <f t="shared" si="8"/>
-        <v>0.45474906548419214</v>
+        <v>0.45150569344775054</v>
       </c>
       <c r="T28" s="75"/>
       <c r="U28" s="68" t="s">

--- a/2020年1-4月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-4月金源消耗表（财务运营共享版）.xlsx
@@ -28072,7 +28072,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49819,11 +49819,11 @@
       </c>
       <c r="U237" s="93"/>
       <c r="V237" s="93">
-        <v>24590.1</v>
+        <v>24405.21</v>
       </c>
       <c r="W237" s="93">
         <f>V237*6%</f>
-        <v>1475.4059999999999</v>
+        <v>1464.3126</v>
       </c>
       <c r="X237" s="22">
         <f t="shared" ref="X237" si="31">IF(V237-Z237&lt;0,0,IF(N237="返现",MAX(V237-Y237-Z237,0),MAX(V237-Z237,0)))</f>
@@ -49831,7 +49831,7 @@
       </c>
       <c r="Y237" s="94">
         <f t="shared" ref="Y237" si="32">T237-V237</f>
-        <v>0</v>
+        <v>184.88999999999942</v>
       </c>
       <c r="Z237" s="93">
         <f>T237</f>
@@ -51680,20 +51680,20 @@
       </c>
       <c r="O28" s="71">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A28,客户表!A:A,E28,客户表!M:M,F28)+SUMIFS(客户表!W:W,客户表!I:I,A28,客户表!A:A,E28,客户表!M:M,F28)</f>
-        <v>6820937.3005999997</v>
+        <v>6820741.3172000004</v>
       </c>
       <c r="P28" s="81"/>
       <c r="Q28" s="71">
         <f t="shared" si="4"/>
-        <v>3092513.4015094335</v>
+        <v>3092328.5115094339</v>
       </c>
       <c r="R28" s="71">
         <f t="shared" si="2"/>
-        <v>3092513.4015094335</v>
+        <v>3092328.5115094339</v>
       </c>
       <c r="S28" s="73">
         <f t="shared" si="8"/>
-        <v>0.45338540221406265</v>
+        <v>0.45337132251467255</v>
       </c>
       <c r="T28" s="75"/>
       <c r="U28" s="68" t="s">

--- a/2020年1-4月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-4月金源消耗表（财务运营共享版）.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="315">
   <si>
     <t>周期</t>
   </si>
@@ -1130,6 +1130,10 @@
     <t>指数专区</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>媒体现金消耗5027.09加到5月</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -28070,9 +28074,9 @@
   </sheetPr>
   <dimension ref="A1:AM237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -48449,7 +48453,9 @@
         <v>0.98</v>
       </c>
       <c r="P224" s="92"/>
-      <c r="Q224" s="89"/>
+      <c r="Q224" s="89" t="s">
+        <v>314</v>
+      </c>
       <c r="R224" s="93">
         <v>0</v>
       </c>
@@ -48464,8 +48470,7 @@
         <v>144972.91</v>
       </c>
       <c r="V224" s="93">
-        <f t="shared" si="22"/>
-        <v>4926.5482000000002</v>
+        <v>0</v>
       </c>
       <c r="W224" s="89"/>
       <c r="X224" s="22">
@@ -48474,11 +48479,10 @@
       </c>
       <c r="Y224" s="94">
         <f t="shared" si="29"/>
-        <v>100.54179999999997</v>
+        <v>5027.09</v>
       </c>
       <c r="Z224" s="94">
-        <f t="shared" si="23"/>
-        <v>5027.09</v>
+        <v>0</v>
       </c>
       <c r="AA224" s="95">
         <v>0.05</v>
@@ -48495,8 +48499,7 @@
         <v>0.3</v>
       </c>
       <c r="AG224" s="93">
-        <f t="shared" si="27"/>
-        <v>3866.9923076923078</v>
+        <v>0</v>
       </c>
       <c r="AH224" s="93"/>
       <c r="AI224" s="93">
@@ -48511,8 +48514,7 @@
         <v>45000</v>
       </c>
       <c r="AL224" s="93">
-        <f t="shared" si="25"/>
-        <v>4926.5482000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:39" ht="14.25">
@@ -49888,7 +49890,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -51549,20 +51551,20 @@
       </c>
       <c r="O26" s="71">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A26,客户表!A:A,E26,客户表!M:M,F26)+SUMIFS(客户表!W:W,客户表!I:I,A26,客户表!A:A,E26,客户表!M:M,F26)+SUMIFS(客户表!AM:AM,客户表!I:I,A26,客户表!A:A,E26,客户表!M:M,F26)</f>
-        <v>2070807.9074963906</v>
+        <v>2065881.3592963906</v>
       </c>
       <c r="P26" s="81"/>
       <c r="Q26" s="71">
         <f t="shared" si="4"/>
-        <v>986077.28443055728</v>
+        <v>981429.59744942503</v>
       </c>
       <c r="R26" s="71">
         <f t="shared" si="2"/>
-        <v>986077.28443055728</v>
+        <v>981429.59744942503</v>
       </c>
       <c r="S26" s="73">
         <f t="shared" ref="S26:S30" si="8">R26/O26</f>
-        <v>0.47617998794621463</v>
+        <v>0.47506580812737759</v>
       </c>
       <c r="T26" s="83"/>
       <c r="U26" s="68" t="s">

--- a/2020年1-4月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-4月金源消耗表（财务运营共享版）.xlsx
@@ -28074,9 +28074,9 @@
   </sheetPr>
   <dimension ref="A1:AM237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -43995,8 +43995,8 @@
       </c>
       <c r="P182" s="92"/>
       <c r="Q182" s="89"/>
-      <c r="R182" s="93">
-        <v>68898.81</v>
+      <c r="R182" s="59">
+        <v>70024.240000000005</v>
       </c>
       <c r="S182" s="93">
         <v>0</v>
@@ -44006,7 +44006,7 @@
       </c>
       <c r="U182" s="93">
         <f t="shared" si="21"/>
-        <v>68897.929999999993</v>
+        <v>70023.360000000001</v>
       </c>
       <c r="V182" s="93">
         <f t="shared" si="22"/>
